--- a/System Test.xlsx
+++ b/System Test.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elshi\OneDrive\Desktop\Guru 99\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9B27EC-BD46-47E7-9508-EA0D9C07AC4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAF804A-7C7E-4141-81E3-E3735CBE9FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="557" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="557" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Manager" sheetId="1" r:id="rId1"/>
+    <sheet name="Customer" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1817" uniqueCount="622">
   <si>
     <t>Test Scenario</t>
   </si>
@@ -1919,6 +1919,454 @@
   <si>
     <t xml:space="preserve">
 Mini Statement</t>
+  </si>
+  <si>
+    <t>Verify that manager can  can see mini-statement of valid account.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The screen should display last 5 transactions of an 
+account </t>
+  </si>
+  <si>
+    <t>MS_149</t>
+  </si>
+  <si>
+    <t>MS_150</t>
+  </si>
+  <si>
+    <t>MS_151</t>
+  </si>
+  <si>
+    <t>MS_152</t>
+  </si>
+  <si>
+    <t>MS_153</t>
+  </si>
+  <si>
+    <t>MS_154</t>
+  </si>
+  <si>
+    <t>MS_155</t>
+  </si>
+  <si>
+    <t>MS_156</t>
+  </si>
+  <si>
+    <t>MS_157</t>
+  </si>
+  <si>
+    <t>MS_158</t>
+  </si>
+  <si>
+    <t>Verify that manager can  can see mini-statement of invalid account.</t>
+  </si>
+  <si>
+    <t>Verify that screen ony show last 5 transaction when the acount has more than 5 transaction</t>
+  </si>
+  <si>
+    <t>Verify that screen all transaction when the acount has less than 5 transaction</t>
+  </si>
+  <si>
+    <t>The screen should display all transactions found</t>
+  </si>
+  <si>
+    <t>1- Enter Account no
+2- Click "Reset"
+3- Check Result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that manager can see of valid account with unstable internet connection. </t>
+  </si>
+  <si>
+    <t>Verify that is Mini Statement functionality working in Mozilla Firefox.</t>
+  </si>
+  <si>
+    <t>Verify that is Mini Statement functionality working in Microsoft Edge.</t>
+  </si>
+  <si>
+    <t>Verify that is Mini Statement functionality working in Apple Safari.</t>
+  </si>
+  <si>
+    <t>Verify Mini Statement functionality on different operating systems (macOS).</t>
+  </si>
+  <si>
+    <t>Verify Mini Statement functionality on different operating system (Linux).</t>
+  </si>
+  <si>
+    <t>CS_159</t>
+  </si>
+  <si>
+    <t>CS_160</t>
+  </si>
+  <si>
+    <t>CS_161</t>
+  </si>
+  <si>
+    <t>CS_162</t>
+  </si>
+  <si>
+    <t>CS_163</t>
+  </si>
+  <si>
+    <t>CS_164</t>
+  </si>
+  <si>
+    <t>CS_165</t>
+  </si>
+  <si>
+    <t>CS_166</t>
+  </si>
+  <si>
+    <t>CS_167</t>
+  </si>
+  <si>
+    <t>CS_168</t>
+  </si>
+  <si>
+    <t>CS_169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Customized Statement </t>
+  </si>
+  <si>
+    <t>Account no: "Test555"
+From Date: "15/2/2025"
+To Date: "15/3/2025"
+Minimum Transaction Value: "2000"
+Number Of Transaction: "5"</t>
+  </si>
+  <si>
+    <t>1- The user must be logged in as a Manager.
+2- Navigate to the "Mini Statement" page.
+3- The specified account exists and has transaction history.</t>
+  </si>
+  <si>
+    <t>1- The user must be logged in as a Manager.
+2- Navigate to the "Customized Statement" page.
+3- The specified account exists and has transaction history.</t>
+  </si>
+  <si>
+    <t>1- Enter account no
+2- Enter from date
+3- Enter to date
+4- Enter Minimum Transaction Value
+5- Enter Number Of Transaction
+click "Submit"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The screen should display the filtered transactions of an 
+account </t>
+  </si>
+  <si>
+    <t>Account no: "invalidTest555"
+From Date: "15/2/2025"
+To Date: "15/3/2025"
+Minimum Transaction Value: "2000"
+Number Of Transaction: "5"</t>
+  </si>
+  <si>
+    <t>Verify that manager can  see Customized Statement  of valid account.</t>
+  </si>
+  <si>
+    <t>Verify that manager can see Customized Statement of invalid account.</t>
+  </si>
+  <si>
+    <t>Verify that manager can  see Customized Statement  of valid account when to date is greater than from date</t>
+  </si>
+  <si>
+    <t>Account no: "Test555"
+From Date: "15/4/2025"
+To Date: "15/1/2025"
+Minimum Transaction Value: "2000"
+Number Of Transaction: "5"</t>
+  </si>
+  <si>
+    <t>An error message"From Date cannot be later than To Date." must be shown.</t>
+  </si>
+  <si>
+    <t>Verify that manager can  see Customized Statement  of valid account with Minimum Transaction Value doesn’t exist in the system</t>
+  </si>
+  <si>
+    <t>Account no: "Test555"
+From Date: "15/4/2025"
+To Date: "15/1/2025"
+Minimum Transaction Value: "1000"
+Number Of Transaction: "5"</t>
+  </si>
+  <si>
+    <t>System massege "There is no any transaction with this value" must be shown</t>
+  </si>
+  <si>
+    <t>Verify that is Customized Statement functionality working in Mozilla Firefox.</t>
+  </si>
+  <si>
+    <t>Verify that is Customized Statement functionality working in Microsoft Edge.</t>
+  </si>
+  <si>
+    <t>Verify that is Customized Statement functionality working in Apple Safari.</t>
+  </si>
+  <si>
+    <t>Verify Customized Statement functionality on different operating systems (macOS).</t>
+  </si>
+  <si>
+    <t>Verify Customized Statement functionality on different operating system (Linux).</t>
+  </si>
+  <si>
+    <t>FT_001</t>
+  </si>
+  <si>
+    <t>FT_002</t>
+  </si>
+  <si>
+    <t>FT_003</t>
+  </si>
+  <si>
+    <t>FT_004</t>
+  </si>
+  <si>
+    <t>FT_005</t>
+  </si>
+  <si>
+    <t>FT_006</t>
+  </si>
+  <si>
+    <t>FT_007</t>
+  </si>
+  <si>
+    <t>FT_008</t>
+  </si>
+  <si>
+    <t>FT_009</t>
+  </si>
+  <si>
+    <t>FT_010</t>
+  </si>
+  <si>
+    <t>FT_011</t>
+  </si>
+  <si>
+    <t>CP_013</t>
+  </si>
+  <si>
+    <t>CP_014</t>
+  </si>
+  <si>
+    <t>CP_015</t>
+  </si>
+  <si>
+    <t>CP_016</t>
+  </si>
+  <si>
+    <t>CP_017</t>
+  </si>
+  <si>
+    <t>CP_018</t>
+  </si>
+  <si>
+    <t>CP_019</t>
+  </si>
+  <si>
+    <t>CP_020</t>
+  </si>
+  <si>
+    <t>CP_021</t>
+  </si>
+  <si>
+    <t>BE_023</t>
+  </si>
+  <si>
+    <t>BE_024</t>
+  </si>
+  <si>
+    <t>BE_025</t>
+  </si>
+  <si>
+    <t>BE_026</t>
+  </si>
+  <si>
+    <t>BE_027</t>
+  </si>
+  <si>
+    <t>BE_028</t>
+  </si>
+  <si>
+    <t>BE_029</t>
+  </si>
+  <si>
+    <t>BE_030</t>
+  </si>
+  <si>
+    <t>BE_031</t>
+  </si>
+  <si>
+    <t>MS_033</t>
+  </si>
+  <si>
+    <t>MS_034</t>
+  </si>
+  <si>
+    <t>MS_035</t>
+  </si>
+  <si>
+    <t>MS_036</t>
+  </si>
+  <si>
+    <t>MS_037</t>
+  </si>
+  <si>
+    <t>MS_038</t>
+  </si>
+  <si>
+    <t>MS_039</t>
+  </si>
+  <si>
+    <t>MS_040</t>
+  </si>
+  <si>
+    <t>MS_041</t>
+  </si>
+  <si>
+    <t>MS_042</t>
+  </si>
+  <si>
+    <t>CS_044</t>
+  </si>
+  <si>
+    <t>CS_045</t>
+  </si>
+  <si>
+    <t>CS_046</t>
+  </si>
+  <si>
+    <t>CS_047</t>
+  </si>
+  <si>
+    <t>CS_048</t>
+  </si>
+  <si>
+    <t>CS_049</t>
+  </si>
+  <si>
+    <t>CS_050</t>
+  </si>
+  <si>
+    <t>CS_051</t>
+  </si>
+  <si>
+    <t>CS_052</t>
+  </si>
+  <si>
+    <t>CS_053</t>
+  </si>
+  <si>
+    <t>Verify that customer can transfer fund from valid accuont to valid account.</t>
+  </si>
+  <si>
+    <t>1- The user must be logged in as a customer.
+2- Navigate to the "Fund Transfer" page.</t>
+  </si>
+  <si>
+    <t>Verify that customer can transfer fund from invalid accuont to valid account.</t>
+  </si>
+  <si>
+    <t>Verify that customer can transfer fund from valid accuont to invalid account.</t>
+  </si>
+  <si>
+    <t>Verify that customer can transfer fund from invalid accuont to invalid account.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that a customer can Fund Transfer with unstable internet connection. </t>
+  </si>
+  <si>
+    <t>Verify that customer can change password of his account.</t>
+  </si>
+  <si>
+    <t>1- The user must be logged in as a customer.
+2- Navigate to the "Change Password" page.</t>
+  </si>
+  <si>
+    <t>Verify that customer can change password of his account with in valid old password.</t>
+  </si>
+  <si>
+    <t>Verify that customer can change password of his account with confirm passord not same as new password.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that a customer can Change Password with unstable internet connection. </t>
+  </si>
+  <si>
+    <t>Verify that customer can view balnce of valid account</t>
+  </si>
+  <si>
+    <t>1- The user must be logged in as a customer.
+2- Navigate to the "Balance Enquiry" page.</t>
+  </si>
+  <si>
+    <t>Verify that customer can view balnce of invalid account</t>
+  </si>
+  <si>
+    <t>Verify that customer can view balnce of valid account on his supervision.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that customer can view balnce of valid account with unstable internet connection. </t>
+  </si>
+  <si>
+    <t>Verify that customer can  can see mini-statement of valid account.</t>
+  </si>
+  <si>
+    <t>1- The user must be logged in as a customer.
+2- Navigate to the "Mini Statement" page.
+3- The specified account exists and has transaction history.</t>
+  </si>
+  <si>
+    <t>Verify that customer can  can see mini-statement of invalid account.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that customer can see of valid account with unstable internet connection. </t>
+  </si>
+  <si>
+    <t>Verify that customer can  see Customized Statement  of valid account.</t>
+  </si>
+  <si>
+    <t>1- The user must be logged in as a customer.
+2- Navigate to the "Customized Statement" page.
+3- The specified account exists and has transaction history.</t>
+  </si>
+  <si>
+    <t>Verify that customer can see Customized Statement of invalid account.</t>
+  </si>
+  <si>
+    <t>Verify that customer can  see Customized Statement  of valid account when to date is greater than from date</t>
+  </si>
+  <si>
+    <t>Verify that customer can  see Customized Statement  of valid account with Minimum Transaction Value doesn’t exist in the system</t>
+  </si>
+  <si>
+    <t>FT_012</t>
+  </si>
+  <si>
+    <t>Verify that customer can transfer fund without  the necessary balance .</t>
+  </si>
+  <si>
+    <t>Payers account no : "invalidtest555"
+Payees account no : "invalidtest666"
+Amount : "5000"
+balance: "3000"</t>
+  </si>
+  <si>
+    <t>The system displays a Error message such as "No enough balance"</t>
+  </si>
+  <si>
+    <t>CP_022</t>
+  </si>
+  <si>
+    <t>BE_032</t>
+  </si>
+  <si>
+    <t>MS_043</t>
+  </si>
+  <si>
+    <t>CS_054</t>
   </si>
 </sst>
 </file>
@@ -1993,7 +2441,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -2268,11 +2716,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2318,15 +2797,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2336,11 +2806,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2372,8 +2845,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2660,69 +3145,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I419"/>
+  <dimension ref="A1:I420"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C161" sqref="C161"/>
+    <sheetView topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D14" sqref="A1:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" style="6" customWidth="1"/>
     <col min="5" max="5" width="36.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.7109375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="8.7109375" style="6" customWidth="1"/>
     <col min="13" max="16384" width="14.42578125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="27" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="30"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="28"/>
     </row>
     <row r="3" spans="1:9" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="23" t="s">
         <v>88</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2751,7 +3236,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
@@ -2778,7 +3263,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="27"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
@@ -2804,8 +3289,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="27"/>
+    <row r="6" spans="1:9" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="25"/>
       <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
@@ -2832,7 +3317,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="27"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
@@ -2859,7 +3344,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="27"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
@@ -2886,7 +3371,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="27"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
@@ -2913,7 +3398,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="27"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
@@ -2940,7 +3425,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="27"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
@@ -2967,7 +3452,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="27"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="3" t="s">
         <v>36</v>
       </c>
@@ -2994,7 +3479,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="27"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="3" t="s">
         <v>39</v>
       </c>
@@ -3021,7 +3506,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="27"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="3" t="s">
         <v>46</v>
       </c>
@@ -3048,7 +3533,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="153" x14ac:dyDescent="0.2">
-      <c r="A15" s="27"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="3" t="s">
         <v>47</v>
       </c>
@@ -3075,7 +3560,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="27"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="3" t="s">
         <v>53</v>
       </c>
@@ -3102,7 +3587,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="27"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="3" t="s">
         <v>58</v>
       </c>
@@ -3129,7 +3614,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="27"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="3" t="s">
         <v>73</v>
       </c>
@@ -3156,7 +3641,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="27"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="3" t="s">
         <v>74</v>
       </c>
@@ -3183,7 +3668,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="27"/>
+      <c r="A20" s="25"/>
       <c r="B20" s="3" t="s">
         <v>75</v>
       </c>
@@ -3210,7 +3695,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="27"/>
+      <c r="A21" s="25"/>
       <c r="B21" s="3" t="s">
         <v>76</v>
       </c>
@@ -3237,7 +3722,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="27"/>
+      <c r="A22" s="25"/>
       <c r="B22" s="3" t="s">
         <v>77</v>
       </c>
@@ -3264,7 +3749,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="28"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="3" t="s">
         <v>91</v>
       </c>
@@ -3291,18 +3776,18 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="20"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="22"/>
-    </row>
-    <row r="25" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="17" t="s">
+      <c r="A24" s="17"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="19"/>
+    </row>
+    <row r="25" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="20" t="s">
         <v>177</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -3330,8 +3815,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
+    <row r="26" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="21"/>
       <c r="B26" s="3" t="s">
         <v>99</v>
       </c>
@@ -3358,7 +3843,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
+      <c r="A27" s="21"/>
       <c r="B27" s="3" t="s">
         <v>102</v>
       </c>
@@ -3385,7 +3870,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="3" t="s">
         <v>103</v>
       </c>
@@ -3412,7 +3897,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="18"/>
+      <c r="A29" s="21"/>
       <c r="B29" s="3" t="s">
         <v>104</v>
       </c>
@@ -3439,7 +3924,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="18"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="3" t="s">
         <v>105</v>
       </c>
@@ -3466,7 +3951,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="18"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="3" t="s">
         <v>106</v>
       </c>
@@ -3493,7 +3978,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="18"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="3" t="s">
         <v>107</v>
       </c>
@@ -3520,7 +4005,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="18"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="3" t="s">
         <v>139</v>
       </c>
@@ -3547,7 +4032,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="18"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="3" t="s">
         <v>140</v>
       </c>
@@ -3574,7 +4059,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="18"/>
+      <c r="A35" s="21"/>
       <c r="B35" s="3" t="s">
         <v>141</v>
       </c>
@@ -3601,7 +4086,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="18"/>
+      <c r="A36" s="21"/>
       <c r="B36" s="3" t="s">
         <v>142</v>
       </c>
@@ -3628,7 +4113,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="18"/>
+      <c r="A37" s="21"/>
       <c r="B37" s="3" t="s">
         <v>143</v>
       </c>
@@ -3655,7 +4140,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="18"/>
+      <c r="A38" s="21"/>
       <c r="B38" s="3" t="s">
         <v>144</v>
       </c>
@@ -3682,7 +4167,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="18"/>
+      <c r="A39" s="21"/>
       <c r="B39" s="3" t="s">
         <v>145</v>
       </c>
@@ -3709,7 +4194,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="18"/>
+      <c r="A40" s="21"/>
       <c r="B40" s="3" t="s">
         <v>146</v>
       </c>
@@ -3736,7 +4221,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="18"/>
+      <c r="A41" s="21"/>
       <c r="B41" s="3" t="s">
         <v>147</v>
       </c>
@@ -3763,7 +4248,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="18"/>
+      <c r="A42" s="21"/>
       <c r="B42" s="3" t="s">
         <v>148</v>
       </c>
@@ -3790,7 +4275,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="18"/>
+      <c r="A43" s="21"/>
       <c r="B43" s="3" t="s">
         <v>149</v>
       </c>
@@ -3817,7 +4302,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="18"/>
+      <c r="A44" s="21"/>
       <c r="B44" s="3" t="s">
         <v>165</v>
       </c>
@@ -3844,7 +4329,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="18"/>
+      <c r="A45" s="21"/>
       <c r="B45" s="3" t="s">
         <v>166</v>
       </c>
@@ -3871,7 +4356,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="18"/>
+      <c r="A46" s="21"/>
       <c r="B46" s="3" t="s">
         <v>167</v>
       </c>
@@ -3898,7 +4383,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="18"/>
+      <c r="A47" s="21"/>
       <c r="B47" s="3" t="s">
         <v>178</v>
       </c>
@@ -3925,7 +4410,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="18"/>
+      <c r="A48" s="21"/>
       <c r="B48" s="3" t="s">
         <v>179</v>
       </c>
@@ -3952,7 +4437,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="19"/>
+      <c r="A49" s="22"/>
       <c r="B49" s="3" t="s">
         <v>184</v>
       </c>
@@ -3979,18 +4464,18 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="20"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="22"/>
+      <c r="A50" s="17"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="19"/>
     </row>
     <row r="51" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="17" t="s">
+      <c r="A51" s="20" t="s">
         <v>196</v>
       </c>
       <c r="B51" s="3" t="s">
@@ -4018,8 +4503,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="23"/>
+    <row r="52" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="33"/>
       <c r="B52" s="3" t="s">
         <v>195</v>
       </c>
@@ -4045,8 +4530,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="23"/>
+    <row r="53" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="33"/>
       <c r="B53" s="3" t="s">
         <v>198</v>
       </c>
@@ -4073,7 +4558,7 @@
       </c>
     </row>
     <row r="54" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="23"/>
+      <c r="A54" s="33"/>
       <c r="B54" s="3" t="s">
         <v>199</v>
       </c>
@@ -4100,7 +4585,7 @@
       </c>
     </row>
     <row r="55" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="23"/>
+      <c r="A55" s="33"/>
       <c r="B55" s="3" t="s">
         <v>200</v>
       </c>
@@ -4126,8 +4611,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="23"/>
+    <row r="56" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="33"/>
       <c r="B56" s="3" t="s">
         <v>201</v>
       </c>
@@ -4153,8 +4638,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="23"/>
+    <row r="57" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="33"/>
       <c r="B57" s="3" t="s">
         <v>202</v>
       </c>
@@ -4181,7 +4666,7 @@
       </c>
     </row>
     <row r="58" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A58" s="23"/>
+      <c r="A58" s="33"/>
       <c r="B58" s="3" t="s">
         <v>203</v>
       </c>
@@ -4208,7 +4693,7 @@
       </c>
     </row>
     <row r="59" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A59" s="23"/>
+      <c r="A59" s="33"/>
       <c r="B59" s="3" t="s">
         <v>213</v>
       </c>
@@ -4235,7 +4720,7 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A60" s="23"/>
+      <c r="A60" s="33"/>
       <c r="B60" s="3" t="s">
         <v>214</v>
       </c>
@@ -4261,8 +4746,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="23"/>
+    <row r="61" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A61" s="33"/>
       <c r="B61" s="3" t="s">
         <v>215</v>
       </c>
@@ -4288,8 +4773,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="24"/>
+    <row r="62" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A62" s="34"/>
       <c r="B62" s="3" t="s">
         <v>216</v>
       </c>
@@ -4316,18 +4801,18 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="20"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="21"/>
-      <c r="H63" s="21"/>
-      <c r="I63" s="22"/>
+      <c r="A63" s="17"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="19"/>
     </row>
     <row r="64" spans="1:9" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="17" t="s">
+      <c r="A64" s="20" t="s">
         <v>248</v>
       </c>
       <c r="B64" s="3" t="s">
@@ -4355,8 +4840,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="23"/>
+    <row r="65" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A65" s="33"/>
       <c r="B65" s="3" t="s">
         <v>225</v>
       </c>
@@ -4382,8 +4867,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="23"/>
+    <row r="66" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A66" s="33"/>
       <c r="B66" s="3" t="s">
         <v>226</v>
       </c>
@@ -4409,8 +4894,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="23"/>
+    <row r="67" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A67" s="33"/>
       <c r="B67" s="3" t="s">
         <v>227</v>
       </c>
@@ -4436,8 +4921,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="23"/>
+    <row r="68" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A68" s="33"/>
       <c r="B68" s="3" t="s">
         <v>228</v>
       </c>
@@ -4463,8 +4948,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="23"/>
+    <row r="69" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A69" s="33"/>
       <c r="B69" s="3" t="s">
         <v>229</v>
       </c>
@@ -4491,7 +4976,7 @@
       </c>
     </row>
     <row r="70" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="23"/>
+      <c r="A70" s="33"/>
       <c r="B70" s="3" t="s">
         <v>230</v>
       </c>
@@ -4517,8 +5002,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A71" s="23"/>
+    <row r="71" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A71" s="33"/>
       <c r="B71" s="3" t="s">
         <v>231</v>
       </c>
@@ -4542,8 +5027,8 @@
       </c>
       <c r="I71" s="10"/>
     </row>
-    <row r="72" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="23"/>
+    <row r="72" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A72" s="33"/>
       <c r="B72" s="3" t="s">
         <v>232</v>
       </c>
@@ -4567,8 +5052,8 @@
       </c>
       <c r="I72" s="10"/>
     </row>
-    <row r="73" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="23"/>
+    <row r="73" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A73" s="33"/>
       <c r="B73" s="3" t="s">
         <v>233</v>
       </c>
@@ -4592,8 +5077,8 @@
       </c>
       <c r="I73" s="10"/>
     </row>
-    <row r="74" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="23"/>
+    <row r="74" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A74" s="33"/>
       <c r="B74" s="3" t="s">
         <v>234</v>
       </c>
@@ -4619,8 +5104,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="23"/>
+    <row r="75" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A75" s="33"/>
       <c r="B75" s="3" t="s">
         <v>235</v>
       </c>
@@ -4647,7 +5132,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="23"/>
+      <c r="A76" s="33"/>
       <c r="B76" s="3" t="s">
         <v>236</v>
       </c>
@@ -4674,7 +5159,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="23"/>
+      <c r="A77" s="33"/>
       <c r="B77" s="3" t="s">
         <v>237</v>
       </c>
@@ -4701,7 +5186,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A78" s="23"/>
+      <c r="A78" s="33"/>
       <c r="B78" s="3" t="s">
         <v>238</v>
       </c>
@@ -4727,8 +5212,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="23"/>
+    <row r="79" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A79" s="33"/>
       <c r="B79" s="3" t="s">
         <v>239</v>
       </c>
@@ -4754,8 +5239,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="24"/>
+    <row r="80" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A80" s="34"/>
       <c r="B80" s="3" t="s">
         <v>240</v>
       </c>
@@ -4782,18 +5267,18 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="20"/>
-      <c r="B81" s="21"/>
-      <c r="C81" s="21"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="21"/>
-      <c r="G81" s="21"/>
-      <c r="H81" s="21"/>
-      <c r="I81" s="22"/>
+      <c r="A81" s="17"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="19"/>
     </row>
     <row r="82" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="17" t="s">
+      <c r="A82" s="20" t="s">
         <v>306</v>
       </c>
       <c r="B82" s="3" t="s">
@@ -4821,8 +5306,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="23"/>
+    <row r="83" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A83" s="33"/>
       <c r="B83" s="3" t="s">
         <v>273</v>
       </c>
@@ -4848,8 +5333,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="23"/>
+    <row r="84" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A84" s="33"/>
       <c r="B84" s="3" t="s">
         <v>274</v>
       </c>
@@ -4875,8 +5360,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="23"/>
+    <row r="85" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A85" s="33"/>
       <c r="B85" s="3" t="s">
         <v>275</v>
       </c>
@@ -4902,8 +5387,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="23"/>
+    <row r="86" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A86" s="33"/>
       <c r="B86" s="3" t="s">
         <v>276</v>
       </c>
@@ -4929,8 +5414,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="23"/>
+    <row r="87" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A87" s="33"/>
       <c r="B87" s="3" t="s">
         <v>277</v>
       </c>
@@ -4956,8 +5441,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="23"/>
+    <row r="88" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A88" s="33"/>
       <c r="B88" s="3" t="s">
         <v>278</v>
       </c>
@@ -4983,8 +5468,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A89" s="23"/>
+    <row r="89" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A89" s="33"/>
       <c r="B89" s="3" t="s">
         <v>279</v>
       </c>
@@ -5011,7 +5496,7 @@
       </c>
     </row>
     <row r="90" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A90" s="23"/>
+      <c r="A90" s="33"/>
       <c r="B90" s="3" t="s">
         <v>280</v>
       </c>
@@ -5038,7 +5523,7 @@
       </c>
     </row>
     <row r="91" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A91" s="23"/>
+      <c r="A91" s="33"/>
       <c r="B91" s="3" t="s">
         <v>288</v>
       </c>
@@ -5065,7 +5550,7 @@
       </c>
     </row>
     <row r="92" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A92" s="23"/>
+      <c r="A92" s="33"/>
       <c r="B92" s="3" t="s">
         <v>289</v>
       </c>
@@ -5091,8 +5576,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A93" s="23"/>
+    <row r="93" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A93" s="33"/>
       <c r="B93" s="3" t="s">
         <v>290</v>
       </c>
@@ -5118,8 +5603,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A94" s="24"/>
+    <row r="94" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A94" s="34"/>
       <c r="B94" s="3" t="s">
         <v>323</v>
       </c>
@@ -5146,15 +5631,15 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="20"/>
-      <c r="B95" s="21"/>
-      <c r="C95" s="21"/>
-      <c r="D95" s="21"/>
-      <c r="E95" s="21"/>
-      <c r="F95" s="21"/>
-      <c r="G95" s="21"/>
-      <c r="H95" s="21"/>
-      <c r="I95" s="22"/>
+      <c r="A95" s="17"/>
+      <c r="B95" s="18"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="18"/>
+      <c r="E95" s="18"/>
+      <c r="F95" s="18"/>
+      <c r="G95" s="18"/>
+      <c r="H95" s="18"/>
+      <c r="I95" s="19"/>
     </row>
     <row r="96" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="14" t="s">
@@ -5185,7 +5670,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A97" s="15"/>
       <c r="B97" s="3" t="s">
         <v>333</v>
@@ -5212,7 +5697,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A98" s="15"/>
       <c r="B98" s="3" t="s">
         <v>334</v>
@@ -5239,7 +5724,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A99" s="15"/>
       <c r="B99" s="3" t="s">
         <v>335</v>
@@ -5347,7 +5832,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A103" s="15"/>
       <c r="B103" s="3" t="s">
         <v>339</v>
@@ -5374,7 +5859,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A104" s="16"/>
       <c r="B104" s="3" t="s">
         <v>340</v>
@@ -5402,18 +5887,18 @@
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" s="20"/>
-      <c r="B105" s="21"/>
-      <c r="C105" s="21"/>
-      <c r="D105" s="21"/>
-      <c r="E105" s="21"/>
-      <c r="F105" s="21"/>
-      <c r="G105" s="21"/>
-      <c r="H105" s="21"/>
-      <c r="I105" s="22"/>
+      <c r="A105" s="17"/>
+      <c r="B105" s="18"/>
+      <c r="C105" s="18"/>
+      <c r="D105" s="18"/>
+      <c r="E105" s="18"/>
+      <c r="F105" s="18"/>
+      <c r="G105" s="18"/>
+      <c r="H105" s="18"/>
+      <c r="I105" s="19"/>
     </row>
     <row r="106" spans="1:9" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="17" t="s">
+      <c r="A106" s="20" t="s">
         <v>355</v>
       </c>
       <c r="B106" s="3" t="s">
@@ -5441,8 +5926,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A107" s="23"/>
+    <row r="107" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A107" s="33"/>
       <c r="B107" s="3" t="s">
         <v>346</v>
       </c>
@@ -5468,8 +5953,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A108" s="23"/>
+    <row r="108" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A108" s="33"/>
       <c r="B108" s="3" t="s">
         <v>347</v>
       </c>
@@ -5495,8 +5980,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A109" s="23"/>
+    <row r="109" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A109" s="33"/>
       <c r="B109" s="3" t="s">
         <v>348</v>
       </c>
@@ -5523,7 +6008,7 @@
       </c>
     </row>
     <row r="110" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A110" s="23"/>
+      <c r="A110" s="33"/>
       <c r="B110" s="3" t="s">
         <v>349</v>
       </c>
@@ -5550,7 +6035,7 @@
       </c>
     </row>
     <row r="111" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A111" s="23"/>
+      <c r="A111" s="33"/>
       <c r="B111" s="3" t="s">
         <v>350</v>
       </c>
@@ -5577,7 +6062,7 @@
       </c>
     </row>
     <row r="112" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A112" s="23"/>
+      <c r="A112" s="33"/>
       <c r="B112" s="3" t="s">
         <v>351</v>
       </c>
@@ -5603,8 +6088,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A113" s="23"/>
+    <row r="113" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A113" s="33"/>
       <c r="B113" s="3" t="s">
         <v>352</v>
       </c>
@@ -5630,8 +6115,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A114" s="24"/>
+    <row r="114" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A114" s="34"/>
       <c r="B114" s="3" t="s">
         <v>359</v>
       </c>
@@ -5658,18 +6143,18 @@
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A115" s="20"/>
-      <c r="B115" s="21"/>
-      <c r="C115" s="21"/>
-      <c r="D115" s="21"/>
-      <c r="E115" s="21"/>
-      <c r="F115" s="21"/>
-      <c r="G115" s="21"/>
-      <c r="H115" s="21"/>
-      <c r="I115" s="22"/>
+      <c r="A115" s="17"/>
+      <c r="B115" s="18"/>
+      <c r="C115" s="18"/>
+      <c r="D115" s="18"/>
+      <c r="E115" s="18"/>
+      <c r="F115" s="18"/>
+      <c r="G115" s="18"/>
+      <c r="H115" s="18"/>
+      <c r="I115" s="19"/>
     </row>
     <row r="116" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="17" t="s">
+      <c r="A116" s="20" t="s">
         <v>360</v>
       </c>
       <c r="B116" s="3" t="s">
@@ -5697,8 +6182,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A117" s="23"/>
+    <row r="117" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A117" s="33"/>
       <c r="B117" s="3" t="s">
         <v>369</v>
       </c>
@@ -5724,8 +6209,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A118" s="23"/>
+    <row r="118" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A118" s="33"/>
       <c r="B118" s="3" t="s">
         <v>370</v>
       </c>
@@ -5751,8 +6236,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A119" s="23"/>
+    <row r="119" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A119" s="33"/>
       <c r="B119" s="3" t="s">
         <v>371</v>
       </c>
@@ -5778,8 +6263,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A120" s="23"/>
+    <row r="120" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A120" s="33"/>
       <c r="B120" s="3" t="s">
         <v>372</v>
       </c>
@@ -5806,7 +6291,7 @@
       </c>
     </row>
     <row r="121" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A121" s="23"/>
+      <c r="A121" s="33"/>
       <c r="B121" s="3" t="s">
         <v>373</v>
       </c>
@@ -5833,7 +6318,7 @@
       </c>
     </row>
     <row r="122" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A122" s="23"/>
+      <c r="A122" s="33"/>
       <c r="B122" s="3" t="s">
         <v>374</v>
       </c>
@@ -5860,7 +6345,7 @@
       </c>
     </row>
     <row r="123" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A123" s="23"/>
+      <c r="A123" s="33"/>
       <c r="B123" s="3" t="s">
         <v>375</v>
       </c>
@@ -5886,8 +6371,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A124" s="23"/>
+    <row r="124" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A124" s="33"/>
       <c r="B124" s="3" t="s">
         <v>376</v>
       </c>
@@ -5913,8 +6398,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A125" s="24"/>
+    <row r="125" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A125" s="34"/>
       <c r="B125" s="3" t="s">
         <v>377</v>
       </c>
@@ -5941,18 +6426,18 @@
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A126" s="20"/>
-      <c r="B126" s="21"/>
-      <c r="C126" s="21"/>
-      <c r="D126" s="21"/>
-      <c r="E126" s="21"/>
-      <c r="F126" s="21"/>
-      <c r="G126" s="21"/>
-      <c r="H126" s="21"/>
-      <c r="I126" s="22"/>
+      <c r="A126" s="17"/>
+      <c r="B126" s="18"/>
+      <c r="C126" s="18"/>
+      <c r="D126" s="18"/>
+      <c r="E126" s="18"/>
+      <c r="F126" s="18"/>
+      <c r="G126" s="18"/>
+      <c r="H126" s="18"/>
+      <c r="I126" s="19"/>
     </row>
     <row r="127" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="17" t="s">
+      <c r="A127" s="20" t="s">
         <v>389</v>
       </c>
       <c r="B127" s="3" t="s">
@@ -5980,8 +6465,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A128" s="23"/>
+    <row r="128" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A128" s="33"/>
       <c r="B128" s="3" t="s">
         <v>379</v>
       </c>
@@ -6007,8 +6492,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A129" s="23"/>
+    <row r="129" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A129" s="33"/>
       <c r="B129" s="3" t="s">
         <v>380</v>
       </c>
@@ -6034,8 +6519,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A130" s="23"/>
+    <row r="130" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A130" s="33"/>
       <c r="B130" s="3" t="s">
         <v>381</v>
       </c>
@@ -6061,8 +6546,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A131" s="23"/>
+    <row r="131" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A131" s="33"/>
       <c r="B131" s="3" t="s">
         <v>382</v>
       </c>
@@ -6088,8 +6573,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A132" s="23"/>
+    <row r="132" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A132" s="33"/>
       <c r="B132" s="3" t="s">
         <v>383</v>
       </c>
@@ -6115,8 +6600,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A133" s="23"/>
+    <row r="133" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A133" s="33"/>
       <c r="B133" s="3" t="s">
         <v>384</v>
       </c>
@@ -6142,8 +6627,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A134" s="23"/>
+    <row r="134" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A134" s="33"/>
       <c r="B134" s="3" t="s">
         <v>385</v>
       </c>
@@ -6169,8 +6654,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A135" s="23"/>
+    <row r="135" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A135" s="33"/>
       <c r="B135" s="3" t="s">
         <v>386</v>
       </c>
@@ -6196,8 +6681,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A136" s="23"/>
+    <row r="136" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A136" s="33"/>
       <c r="B136" s="3" t="s">
         <v>387</v>
       </c>
@@ -6223,8 +6708,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A137" s="24"/>
+    <row r="137" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A137" s="34"/>
       <c r="B137" s="3" t="s">
         <v>388</v>
       </c>
@@ -6251,18 +6736,18 @@
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A138" s="20"/>
-      <c r="B138" s="21"/>
-      <c r="C138" s="21"/>
-      <c r="D138" s="21"/>
-      <c r="E138" s="21"/>
-      <c r="F138" s="21"/>
-      <c r="G138" s="21"/>
-      <c r="H138" s="21"/>
-      <c r="I138" s="22"/>
+      <c r="A138" s="17"/>
+      <c r="B138" s="18"/>
+      <c r="C138" s="18"/>
+      <c r="D138" s="18"/>
+      <c r="E138" s="18"/>
+      <c r="F138" s="18"/>
+      <c r="G138" s="18"/>
+      <c r="H138" s="18"/>
+      <c r="I138" s="19"/>
     </row>
     <row r="139" spans="1:9" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="17" t="s">
+      <c r="A139" s="20" t="s">
         <v>411</v>
       </c>
       <c r="B139" s="3" t="s">
@@ -6290,8 +6775,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A140" s="23"/>
+    <row r="140" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A140" s="33"/>
       <c r="B140" s="3" t="s">
         <v>404</v>
       </c>
@@ -6317,8 +6802,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A141" s="23"/>
+    <row r="141" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A141" s="33"/>
       <c r="B141" s="3" t="s">
         <v>405</v>
       </c>
@@ -6344,8 +6829,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A142" s="23"/>
+    <row r="142" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A142" s="33"/>
       <c r="B142" s="3" t="s">
         <v>406</v>
       </c>
@@ -6371,8 +6856,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A143" s="23"/>
+    <row r="143" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A143" s="33"/>
       <c r="B143" s="3" t="s">
         <v>407</v>
       </c>
@@ -6398,8 +6883,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A144" s="23"/>
+    <row r="144" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A144" s="33"/>
       <c r="B144" s="3" t="s">
         <v>408</v>
       </c>
@@ -6425,8 +6910,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A145" s="23"/>
+    <row r="145" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A145" s="33"/>
       <c r="B145" s="3" t="s">
         <v>409</v>
       </c>
@@ -6452,8 +6937,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A146" s="23"/>
+    <row r="146" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A146" s="33"/>
       <c r="B146" s="3" t="s">
         <v>410</v>
       </c>
@@ -6479,8 +6964,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A147" s="23"/>
+    <row r="147" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A147" s="33"/>
       <c r="B147" s="3" t="s">
         <v>423</v>
       </c>
@@ -6506,8 +6991,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A148" s="24"/>
+    <row r="148" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A148" s="34"/>
       <c r="B148" s="3" t="s">
         <v>424</v>
       </c>
@@ -6534,18 +7019,18 @@
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A149" s="20"/>
-      <c r="B149" s="21"/>
-      <c r="C149" s="21"/>
-      <c r="D149" s="21"/>
-      <c r="E149" s="21"/>
-      <c r="F149" s="21"/>
-      <c r="G149" s="21"/>
-      <c r="H149" s="21"/>
-      <c r="I149" s="22"/>
-    </row>
-    <row r="150" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A150" s="17" t="s">
+      <c r="A149" s="17"/>
+      <c r="B149" s="18"/>
+      <c r="C149" s="18"/>
+      <c r="D149" s="18"/>
+      <c r="E149" s="18"/>
+      <c r="F149" s="18"/>
+      <c r="G149" s="18"/>
+      <c r="H149" s="18"/>
+      <c r="I149" s="19"/>
+    </row>
+    <row r="150" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A150" s="20" t="s">
         <v>447</v>
       </c>
       <c r="B150" s="3" t="s">
@@ -6573,8 +7058,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A151" s="18"/>
+    <row r="151" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A151" s="21"/>
       <c r="B151" s="3" t="s">
         <v>429</v>
       </c>
@@ -6600,8 +7085,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A152" s="18"/>
+    <row r="152" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A152" s="21"/>
       <c r="B152" s="3" t="s">
         <v>430</v>
       </c>
@@ -6627,8 +7112,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A153" s="18"/>
+    <row r="153" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A153" s="21"/>
       <c r="B153" s="3" t="s">
         <v>431</v>
       </c>
@@ -6654,8 +7139,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A154" s="18"/>
+    <row r="154" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A154" s="21"/>
       <c r="B154" s="3" t="s">
         <v>432</v>
       </c>
@@ -6681,8 +7166,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A155" s="18"/>
+    <row r="155" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A155" s="21"/>
       <c r="B155" s="3" t="s">
         <v>433</v>
       </c>
@@ -6708,8 +7193,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A156" s="18"/>
+    <row r="156" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A156" s="21"/>
       <c r="B156" s="3" t="s">
         <v>434</v>
       </c>
@@ -6735,8 +7220,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A157" s="18"/>
+    <row r="157" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A157" s="21"/>
       <c r="B157" s="3" t="s">
         <v>435</v>
       </c>
@@ -6762,8 +7247,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A158" s="18"/>
+    <row r="158" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A158" s="21"/>
       <c r="B158" s="3" t="s">
         <v>436</v>
       </c>
@@ -6789,8 +7274,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A159" s="19"/>
+    <row r="159" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A159" s="22"/>
       <c r="B159" s="3" t="s">
         <v>446</v>
       </c>
@@ -6817,218 +7302,637 @@
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A160" s="20"/>
-      <c r="B160" s="21"/>
-      <c r="C160" s="21"/>
-      <c r="D160" s="21"/>
-      <c r="E160" s="21"/>
-      <c r="F160" s="21"/>
-      <c r="G160" s="21"/>
-      <c r="H160" s="21"/>
-      <c r="I160" s="22"/>
-    </row>
-    <row r="161" spans="1:9" ht="112.5" x14ac:dyDescent="0.2">
-      <c r="A161" s="35" t="s">
+      <c r="A160" s="17"/>
+      <c r="B160" s="18"/>
+      <c r="C160" s="18"/>
+      <c r="D160" s="18"/>
+      <c r="E160" s="18"/>
+      <c r="F160" s="18"/>
+      <c r="G160" s="18"/>
+      <c r="H160" s="18"/>
+      <c r="I160" s="19"/>
+    </row>
+    <row r="161" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A161" s="20" t="s">
         <v>485</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="C161" s="11"/>
-      <c r="D161" s="11"/>
-      <c r="E161" s="11"/>
-      <c r="F161" s="11"/>
-      <c r="G161" s="12"/>
-      <c r="H161" s="11"/>
+      <c r="C161" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="D161" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="E161" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="F161" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="G161" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H161" s="11" t="s">
+        <v>487</v>
+      </c>
       <c r="I161" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C162" s="11"/>
-      <c r="D162" s="11"/>
-      <c r="E162" s="11"/>
-      <c r="F162" s="11"/>
-      <c r="G162" s="12"/>
-      <c r="H162" s="11"/>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C163" s="11"/>
-      <c r="D163" s="11"/>
-      <c r="E163" s="11"/>
-      <c r="F163" s="11"/>
-      <c r="G163" s="12"/>
-      <c r="H163" s="11"/>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C164" s="11"/>
-      <c r="D164" s="11"/>
-      <c r="E164" s="11"/>
-      <c r="F164" s="11"/>
-      <c r="G164" s="12"/>
-      <c r="H164" s="11"/>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C165" s="11"/>
-      <c r="D165" s="11"/>
-      <c r="E165" s="11"/>
-      <c r="F165" s="11"/>
-      <c r="G165" s="12"/>
-      <c r="H165" s="11"/>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C166" s="11"/>
-      <c r="D166" s="11"/>
-      <c r="E166" s="11"/>
-      <c r="F166" s="11"/>
-      <c r="G166" s="12"/>
-      <c r="H166" s="11"/>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C167" s="11"/>
-      <c r="D167" s="11"/>
-      <c r="E167" s="11"/>
-      <c r="F167" s="11"/>
-      <c r="G167" s="12"/>
-      <c r="H167" s="11"/>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C168" s="11"/>
-      <c r="D168" s="11"/>
-      <c r="E168" s="11"/>
-      <c r="F168" s="11"/>
-      <c r="G168" s="12"/>
-      <c r="H168" s="11"/>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C169" s="11"/>
-      <c r="D169" s="11"/>
-      <c r="E169" s="11"/>
-      <c r="F169" s="11"/>
-      <c r="G169" s="12"/>
-      <c r="H169" s="11"/>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C170" s="11"/>
-      <c r="D170" s="11"/>
-      <c r="E170" s="11"/>
-      <c r="F170" s="11"/>
-      <c r="G170" s="12"/>
-      <c r="H170" s="11"/>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C171" s="11"/>
-      <c r="D171" s="11"/>
-      <c r="E171" s="11"/>
-      <c r="F171" s="11"/>
-      <c r="G171" s="12"/>
-      <c r="H171" s="11"/>
+    <row r="162" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A162" s="33"/>
+      <c r="B162" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="C162" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="D162" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="E162" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="F162" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="G162" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H162" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="I162" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A163" s="33"/>
+      <c r="B163" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C163" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="D163" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="E163" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="F163" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="G163" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H163" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="I163" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A164" s="33"/>
+      <c r="B164" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="C164" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="D164" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="E164" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="F164" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="G164" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H164" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="I164" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A165" s="33"/>
+      <c r="B165" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D165" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="E165" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="F165" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="G165" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H165" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I165" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A166" s="33"/>
+      <c r="B166" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="C166" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="D166" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="E166" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="F166" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="G166" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H166" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I166" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A167" s="33"/>
+      <c r="B167" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="C167" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="D167" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="E167" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="F167" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="G167" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H167" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="I167" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A168" s="33"/>
+      <c r="B168" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="C168" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="D168" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="E168" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="F168" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="G168" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H168" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="I168" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A169" s="33"/>
+      <c r="B169" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="C169" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="D169" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="E169" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="F169" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="G169" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H169" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="I169" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A170" s="33"/>
+      <c r="B170" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C170" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="D170" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="E170" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="F170" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="G170" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H170" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="I170" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A171" s="34"/>
+      <c r="B171" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="C171" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="D171" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="E171" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="F171" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="G171" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H171" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="I171" s="10" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C172" s="11"/>
-      <c r="D172" s="11"/>
-      <c r="E172" s="11"/>
-      <c r="F172" s="11"/>
-      <c r="G172" s="12"/>
-      <c r="H172" s="11"/>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C173" s="11"/>
-      <c r="D173" s="11"/>
-      <c r="E173" s="11"/>
-      <c r="F173" s="11"/>
-      <c r="G173" s="12"/>
-      <c r="H173" s="11"/>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C174" s="11"/>
-      <c r="D174" s="11"/>
-      <c r="E174" s="11"/>
-      <c r="F174" s="11"/>
-      <c r="G174" s="12"/>
-      <c r="H174" s="11"/>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C175" s="11"/>
-      <c r="D175" s="11"/>
-      <c r="E175" s="11"/>
-      <c r="F175" s="11"/>
-      <c r="G175" s="12"/>
-      <c r="H175" s="11"/>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C176" s="11"/>
-      <c r="D176" s="11"/>
-      <c r="E176" s="11"/>
-      <c r="F176" s="11"/>
-      <c r="G176" s="12"/>
-      <c r="H176" s="11"/>
-    </row>
-    <row r="177" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C177" s="11"/>
-      <c r="D177" s="11"/>
-      <c r="E177" s="11"/>
-      <c r="F177" s="11"/>
-      <c r="G177" s="12"/>
-      <c r="H177" s="11"/>
-    </row>
-    <row r="178" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C178" s="11"/>
-      <c r="D178" s="11"/>
-      <c r="E178" s="11"/>
-      <c r="F178" s="11"/>
-      <c r="G178" s="12"/>
-      <c r="H178" s="11"/>
-    </row>
-    <row r="179" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C179" s="11"/>
-      <c r="D179" s="11"/>
-      <c r="E179" s="11"/>
-      <c r="F179" s="11"/>
-      <c r="G179" s="12"/>
-      <c r="H179" s="11"/>
-    </row>
-    <row r="180" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C180" s="11"/>
-      <c r="D180" s="11"/>
-      <c r="E180" s="11"/>
-      <c r="F180" s="11"/>
-      <c r="G180" s="12"/>
-      <c r="H180" s="11"/>
-    </row>
-    <row r="181" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C181" s="11"/>
-      <c r="D181" s="11"/>
-      <c r="E181" s="11"/>
-      <c r="F181" s="11"/>
-      <c r="G181" s="12"/>
-      <c r="H181" s="11"/>
-    </row>
-    <row r="182" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C182" s="11"/>
-      <c r="D182" s="11"/>
-      <c r="E182" s="11"/>
-      <c r="F182" s="11"/>
-      <c r="G182" s="12"/>
-      <c r="H182" s="11"/>
-    </row>
-    <row r="183" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C183" s="11"/>
-      <c r="D183" s="11"/>
-      <c r="E183" s="11"/>
-      <c r="F183" s="11"/>
-      <c r="G183" s="12"/>
-      <c r="H183" s="11"/>
-    </row>
-    <row r="184" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C184" s="11"/>
-      <c r="D184" s="11"/>
-      <c r="E184" s="11"/>
-      <c r="F184" s="11"/>
-      <c r="G184" s="12"/>
-      <c r="H184" s="11"/>
-    </row>
-    <row r="185" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="A172" s="17"/>
+      <c r="B172" s="18"/>
+      <c r="C172" s="18"/>
+      <c r="D172" s="18"/>
+      <c r="E172" s="18"/>
+      <c r="F172" s="18"/>
+      <c r="G172" s="18"/>
+      <c r="H172" s="18"/>
+      <c r="I172" s="19"/>
+    </row>
+    <row r="173" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A173" s="20" t="s">
+        <v>520</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C173" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="D173" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="E173" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="F173" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="G173" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H173" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="I173" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A174" s="21"/>
+      <c r="B174" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="C174" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="D174" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="E174" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="F174" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="G174" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H174" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="I174" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A175" s="21"/>
+      <c r="B175" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="C175" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="D175" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="E175" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="F175" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="G175" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H175" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="I175" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A176" s="21"/>
+      <c r="B176" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="C176" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="D176" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="E176" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="F176" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="G176" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H176" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="I176" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A177" s="21"/>
+      <c r="B177" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D177" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="E177" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="F177" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="G177" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H177" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I177" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A178" s="21"/>
+      <c r="B178" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="C178" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="D178" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="E178" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="F178" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="G178" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H178" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I178" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A179" s="21"/>
+      <c r="B179" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="C179" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="D179" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="E179" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="F179" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="G179" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H179" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="I179" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A180" s="21"/>
+      <c r="B180" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="C180" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="D180" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="E180" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="F180" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="G180" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H180" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="I180" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A181" s="21"/>
+      <c r="B181" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="C181" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="D181" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="E181" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="F181" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="G181" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H181" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="I181" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A182" s="21"/>
+      <c r="B182" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="C182" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="D182" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="E182" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="F182" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="G182" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H182" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="I182" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A183" s="21"/>
+      <c r="B183" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="C183" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="D183" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="E183" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="F183" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="G183" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H183" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="I183" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A184" s="17"/>
+      <c r="B184" s="18"/>
+      <c r="C184" s="18"/>
+      <c r="D184" s="18"/>
+      <c r="E184" s="18"/>
+      <c r="F184" s="18"/>
+      <c r="G184" s="18"/>
+      <c r="H184" s="18"/>
+      <c r="I184" s="19"/>
+    </row>
+    <row r="185" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C185" s="11"/>
       <c r="D185" s="11"/>
       <c r="E185" s="11"/>
@@ -7036,7 +7940,7 @@
       <c r="G185" s="12"/>
       <c r="H185" s="11"/>
     </row>
-    <row r="186" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C186" s="11"/>
       <c r="D186" s="11"/>
       <c r="E186" s="11"/>
@@ -7044,7 +7948,7 @@
       <c r="G186" s="12"/>
       <c r="H186" s="11"/>
     </row>
-    <row r="187" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C187" s="11"/>
       <c r="D187" s="11"/>
       <c r="E187" s="11"/>
@@ -7052,7 +7956,7 @@
       <c r="G187" s="12"/>
       <c r="H187" s="11"/>
     </row>
-    <row r="188" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C188" s="11"/>
       <c r="D188" s="11"/>
       <c r="E188" s="11"/>
@@ -7060,7 +7964,7 @@
       <c r="G188" s="12"/>
       <c r="H188" s="11"/>
     </row>
-    <row r="189" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C189" s="11"/>
       <c r="D189" s="11"/>
       <c r="E189" s="11"/>
@@ -7068,7 +7972,7 @@
       <c r="G189" s="12"/>
       <c r="H189" s="11"/>
     </row>
-    <row r="190" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C190" s="11"/>
       <c r="D190" s="11"/>
       <c r="E190" s="11"/>
@@ -7076,7 +7980,7 @@
       <c r="G190" s="12"/>
       <c r="H190" s="11"/>
     </row>
-    <row r="191" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C191" s="11"/>
       <c r="D191" s="11"/>
       <c r="E191" s="11"/>
@@ -7084,7 +7988,7 @@
       <c r="G191" s="12"/>
       <c r="H191" s="11"/>
     </row>
-    <row r="192" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C192" s="11"/>
       <c r="D192" s="11"/>
       <c r="E192" s="11"/>
@@ -7092,7 +7996,7 @@
       <c r="G192" s="12"/>
       <c r="H192" s="11"/>
     </row>
-    <row r="193" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="3:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C193" s="11"/>
       <c r="D193" s="11"/>
       <c r="E193" s="11"/>
@@ -7100,7 +8004,7 @@
       <c r="G193" s="12"/>
       <c r="H193" s="11"/>
     </row>
-    <row r="194" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="3:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C194" s="11"/>
       <c r="D194" s="11"/>
       <c r="E194" s="11"/>
@@ -7108,7 +8012,7 @@
       <c r="G194" s="12"/>
       <c r="H194" s="11"/>
     </row>
-    <row r="195" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="3:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C195" s="11"/>
       <c r="D195" s="11"/>
       <c r="E195" s="11"/>
@@ -7116,7 +8020,7 @@
       <c r="G195" s="12"/>
       <c r="H195" s="11"/>
     </row>
-    <row r="196" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="3:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C196" s="11"/>
       <c r="D196" s="11"/>
       <c r="E196" s="11"/>
@@ -7124,7 +8028,7 @@
       <c r="G196" s="12"/>
       <c r="H196" s="11"/>
     </row>
-    <row r="197" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="3:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C197" s="11"/>
       <c r="D197" s="11"/>
       <c r="E197" s="11"/>
@@ -7132,7 +8036,7 @@
       <c r="G197" s="12"/>
       <c r="H197" s="11"/>
     </row>
-    <row r="198" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="3:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C198" s="11"/>
       <c r="D198" s="11"/>
       <c r="E198" s="11"/>
@@ -8908,8 +9812,37 @@
       <c r="G419" s="12"/>
       <c r="H419" s="11"/>
     </row>
+    <row r="420" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C420" s="11"/>
+      <c r="D420" s="11"/>
+      <c r="E420" s="11"/>
+      <c r="F420" s="11"/>
+      <c r="G420" s="12"/>
+      <c r="H420" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="34">
+    <mergeCell ref="A172:I172"/>
+    <mergeCell ref="A161:A171"/>
+    <mergeCell ref="A184:I184"/>
+    <mergeCell ref="A173:A183"/>
+    <mergeCell ref="A150:A159"/>
+    <mergeCell ref="A160:I160"/>
+    <mergeCell ref="A126:I126"/>
+    <mergeCell ref="A127:A137"/>
+    <mergeCell ref="A138:I138"/>
+    <mergeCell ref="A139:A148"/>
+    <mergeCell ref="A149:I149"/>
+    <mergeCell ref="A106:A114"/>
+    <mergeCell ref="A115:I115"/>
+    <mergeCell ref="A116:A125"/>
+    <mergeCell ref="A63:I63"/>
+    <mergeCell ref="A51:A62"/>
+    <mergeCell ref="A105:I105"/>
+    <mergeCell ref="A64:A80"/>
+    <mergeCell ref="A81:I81"/>
+    <mergeCell ref="A82:A94"/>
+    <mergeCell ref="A95:I95"/>
     <mergeCell ref="A50:I50"/>
     <mergeCell ref="A25:A49"/>
     <mergeCell ref="A24:I24"/>
@@ -8923,23 +9856,3508 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A106:A114"/>
-    <mergeCell ref="A115:I115"/>
-    <mergeCell ref="A116:A125"/>
-    <mergeCell ref="A63:I63"/>
-    <mergeCell ref="A51:A62"/>
-    <mergeCell ref="A105:I105"/>
-    <mergeCell ref="A64:A80"/>
-    <mergeCell ref="A81:I81"/>
-    <mergeCell ref="A82:A94"/>
-    <mergeCell ref="A95:I95"/>
-    <mergeCell ref="A150:A159"/>
-    <mergeCell ref="A160:I160"/>
-    <mergeCell ref="A126:I126"/>
-    <mergeCell ref="A127:A137"/>
-    <mergeCell ref="A138:I138"/>
-    <mergeCell ref="A139:A148"/>
-    <mergeCell ref="A149:I149"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09CE2240-2AFB-49D1-8E1C-032E4939ABD0}">
+  <dimension ref="A1:I297"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="L59" sqref="L59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="35" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="8.7109375" style="6" customWidth="1"/>
+    <col min="13" max="16384" width="14.42578125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="32"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="28"/>
+    </row>
+    <row r="3" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
+        <v>389</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="33"/>
+      <c r="B4" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="33"/>
+      <c r="B5" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="33"/>
+      <c r="B6" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="33"/>
+      <c r="B7" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="33"/>
+      <c r="B8" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="33"/>
+      <c r="B9" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>594</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="33"/>
+      <c r="B10" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="33"/>
+      <c r="B11" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="33"/>
+      <c r="B12" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="33"/>
+      <c r="B13" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="34"/>
+      <c r="B14" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="35"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="37"/>
+    </row>
+    <row r="16" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="33"/>
+      <c r="B17" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="33"/>
+      <c r="B18" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="33"/>
+      <c r="B19" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="33"/>
+      <c r="B20" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>599</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="33"/>
+      <c r="B21" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="33"/>
+      <c r="B22" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="33"/>
+      <c r="B23" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="33"/>
+      <c r="B24" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="34"/>
+      <c r="B25" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="35"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="37"/>
+    </row>
+    <row r="27" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="20" t="s">
+        <v>447</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="33"/>
+      <c r="B28" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="33"/>
+      <c r="B29" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="33"/>
+      <c r="B30" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="33"/>
+      <c r="B31" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>604</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="33"/>
+      <c r="B32" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="33"/>
+      <c r="B33" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="33"/>
+      <c r="B34" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="33"/>
+      <c r="B35" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="34"/>
+      <c r="B36" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="35"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="37"/>
+    </row>
+    <row r="38" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="20" t="s">
+        <v>485</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="33"/>
+      <c r="B39" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="33"/>
+      <c r="B40" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="33"/>
+      <c r="B41" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="33"/>
+      <c r="B42" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="33"/>
+      <c r="B43" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>608</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="33"/>
+      <c r="B44" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="33"/>
+      <c r="B45" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="33"/>
+      <c r="B46" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="33"/>
+      <c r="B47" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="34"/>
+      <c r="B48" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="35"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="37"/>
+    </row>
+    <row r="50" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="20" t="s">
+        <v>520</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="33"/>
+      <c r="B51" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A52" s="33"/>
+      <c r="B52" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>612</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="33"/>
+      <c r="B53" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="33"/>
+      <c r="B54" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I54" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="33"/>
+      <c r="B55" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>608</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I55" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="33"/>
+      <c r="B56" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="33"/>
+      <c r="B57" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="I57" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="33"/>
+      <c r="B58" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="I58" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="33"/>
+      <c r="B59" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="I59" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="34"/>
+      <c r="B60" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="I60" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="35"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="37"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="11"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="11"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="11"/>
+    </row>
+    <row r="65" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="11"/>
+    </row>
+    <row r="66" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="11"/>
+    </row>
+    <row r="67" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="11"/>
+    </row>
+    <row r="68" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="11"/>
+    </row>
+    <row r="69" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="11"/>
+    </row>
+    <row r="70" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="11"/>
+    </row>
+    <row r="71" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="11"/>
+    </row>
+    <row r="72" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="11"/>
+    </row>
+    <row r="73" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="11"/>
+    </row>
+    <row r="74" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="11"/>
+    </row>
+    <row r="75" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="11"/>
+    </row>
+    <row r="76" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="11"/>
+    </row>
+    <row r="77" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="11"/>
+    </row>
+    <row r="78" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="11"/>
+    </row>
+    <row r="79" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="11"/>
+    </row>
+    <row r="80" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="11"/>
+    </row>
+    <row r="81" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="11"/>
+    </row>
+    <row r="82" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="11"/>
+    </row>
+    <row r="83" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="11"/>
+    </row>
+    <row r="84" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="11"/>
+    </row>
+    <row r="85" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="11"/>
+    </row>
+    <row r="86" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="11"/>
+    </row>
+    <row r="87" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="11"/>
+    </row>
+    <row r="88" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="11"/>
+    </row>
+    <row r="89" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="11"/>
+    </row>
+    <row r="90" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="11"/>
+    </row>
+    <row r="91" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="11"/>
+    </row>
+    <row r="92" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="11"/>
+    </row>
+    <row r="93" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="11"/>
+    </row>
+    <row r="94" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="11"/>
+    </row>
+    <row r="95" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="11"/>
+    </row>
+    <row r="96" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="11"/>
+    </row>
+    <row r="97" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="11"/>
+    </row>
+    <row r="98" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="11"/>
+    </row>
+    <row r="99" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="11"/>
+    </row>
+    <row r="100" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="11"/>
+    </row>
+    <row r="101" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="11"/>
+    </row>
+    <row r="102" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="11"/>
+    </row>
+    <row r="103" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="11"/>
+    </row>
+    <row r="104" spans="3:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="11"/>
+    </row>
+    <row r="105" spans="3:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="11"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="11"/>
+    </row>
+    <row r="106" spans="3:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="11"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="11"/>
+    </row>
+    <row r="107" spans="3:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="11"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="11"/>
+    </row>
+    <row r="108" spans="3:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="11"/>
+    </row>
+    <row r="109" spans="3:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="11"/>
+    </row>
+    <row r="110" spans="3:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="11"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="11"/>
+    </row>
+    <row r="111" spans="3:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C111" s="11"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="11"/>
+      <c r="G111" s="12"/>
+      <c r="H111" s="11"/>
+    </row>
+    <row r="112" spans="3:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C112" s="11"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="11"/>
+      <c r="G112" s="12"/>
+      <c r="H112" s="11"/>
+    </row>
+    <row r="113" spans="3:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C113" s="11"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="12"/>
+      <c r="H113" s="11"/>
+    </row>
+    <row r="114" spans="3:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="11"/>
+      <c r="G114" s="12"/>
+      <c r="H114" s="11"/>
+    </row>
+    <row r="115" spans="3:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C115" s="11"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="11"/>
+      <c r="G115" s="12"/>
+      <c r="H115" s="11"/>
+    </row>
+    <row r="116" spans="3:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="11"/>
+      <c r="G116" s="12"/>
+      <c r="H116" s="11"/>
+    </row>
+    <row r="117" spans="3:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="11"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="11"/>
+    </row>
+    <row r="118" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="12"/>
+      <c r="H118" s="11"/>
+    </row>
+    <row r="119" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C119" s="11"/>
+      <c r="D119" s="11"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="11"/>
+      <c r="G119" s="12"/>
+      <c r="H119" s="11"/>
+    </row>
+    <row r="120" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C120" s="11"/>
+      <c r="D120" s="11"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="11"/>
+      <c r="G120" s="12"/>
+      <c r="H120" s="11"/>
+    </row>
+    <row r="121" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C121" s="11"/>
+      <c r="D121" s="11"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="11"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="11"/>
+    </row>
+    <row r="122" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C122" s="11"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="11"/>
+      <c r="G122" s="12"/>
+      <c r="H122" s="11"/>
+    </row>
+    <row r="123" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C123" s="11"/>
+      <c r="D123" s="11"/>
+      <c r="E123" s="11"/>
+      <c r="F123" s="11"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="11"/>
+    </row>
+    <row r="124" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C124" s="11"/>
+      <c r="D124" s="11"/>
+      <c r="E124" s="11"/>
+      <c r="F124" s="11"/>
+      <c r="G124" s="12"/>
+      <c r="H124" s="11"/>
+    </row>
+    <row r="125" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C125" s="11"/>
+      <c r="D125" s="11"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="11"/>
+      <c r="G125" s="12"/>
+      <c r="H125" s="11"/>
+    </row>
+    <row r="126" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C126" s="11"/>
+      <c r="D126" s="11"/>
+      <c r="E126" s="11"/>
+      <c r="F126" s="11"/>
+      <c r="G126" s="12"/>
+      <c r="H126" s="11"/>
+    </row>
+    <row r="127" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C127" s="11"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="11"/>
+      <c r="G127" s="12"/>
+      <c r="H127" s="11"/>
+    </row>
+    <row r="128" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C128" s="11"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="11"/>
+      <c r="F128" s="11"/>
+      <c r="G128" s="12"/>
+      <c r="H128" s="11"/>
+    </row>
+    <row r="129" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="11"/>
+      <c r="G129" s="12"/>
+      <c r="H129" s="11"/>
+    </row>
+    <row r="130" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
+      <c r="E130" s="11"/>
+      <c r="F130" s="11"/>
+      <c r="G130" s="12"/>
+      <c r="H130" s="11"/>
+    </row>
+    <row r="131" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C131" s="11"/>
+      <c r="D131" s="11"/>
+      <c r="E131" s="11"/>
+      <c r="F131" s="11"/>
+      <c r="G131" s="12"/>
+      <c r="H131" s="11"/>
+    </row>
+    <row r="132" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C132" s="11"/>
+      <c r="D132" s="11"/>
+      <c r="E132" s="11"/>
+      <c r="F132" s="11"/>
+      <c r="G132" s="12"/>
+      <c r="H132" s="11"/>
+    </row>
+    <row r="133" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C133" s="11"/>
+      <c r="D133" s="11"/>
+      <c r="E133" s="11"/>
+      <c r="F133" s="11"/>
+      <c r="G133" s="12"/>
+      <c r="H133" s="11"/>
+    </row>
+    <row r="134" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C134" s="11"/>
+      <c r="D134" s="11"/>
+      <c r="E134" s="11"/>
+      <c r="F134" s="11"/>
+      <c r="G134" s="12"/>
+      <c r="H134" s="11"/>
+    </row>
+    <row r="135" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C135" s="11"/>
+      <c r="D135" s="11"/>
+      <c r="E135" s="11"/>
+      <c r="F135" s="11"/>
+      <c r="G135" s="12"/>
+      <c r="H135" s="11"/>
+    </row>
+    <row r="136" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C136" s="11"/>
+      <c r="D136" s="11"/>
+      <c r="E136" s="11"/>
+      <c r="F136" s="11"/>
+      <c r="G136" s="12"/>
+      <c r="H136" s="11"/>
+    </row>
+    <row r="137" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C137" s="11"/>
+      <c r="D137" s="11"/>
+      <c r="E137" s="11"/>
+      <c r="F137" s="11"/>
+      <c r="G137" s="12"/>
+      <c r="H137" s="11"/>
+    </row>
+    <row r="138" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C138" s="11"/>
+      <c r="D138" s="11"/>
+      <c r="E138" s="11"/>
+      <c r="F138" s="11"/>
+      <c r="G138" s="12"/>
+      <c r="H138" s="11"/>
+    </row>
+    <row r="139" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C139" s="11"/>
+      <c r="D139" s="11"/>
+      <c r="E139" s="11"/>
+      <c r="F139" s="11"/>
+      <c r="G139" s="12"/>
+      <c r="H139" s="11"/>
+    </row>
+    <row r="140" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C140" s="11"/>
+      <c r="D140" s="11"/>
+      <c r="E140" s="11"/>
+      <c r="F140" s="11"/>
+      <c r="G140" s="12"/>
+      <c r="H140" s="11"/>
+    </row>
+    <row r="141" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C141" s="11"/>
+      <c r="D141" s="11"/>
+      <c r="E141" s="11"/>
+      <c r="F141" s="11"/>
+      <c r="G141" s="12"/>
+      <c r="H141" s="11"/>
+    </row>
+    <row r="142" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C142" s="11"/>
+      <c r="D142" s="11"/>
+      <c r="E142" s="11"/>
+      <c r="F142" s="11"/>
+      <c r="G142" s="12"/>
+      <c r="H142" s="11"/>
+    </row>
+    <row r="143" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C143" s="11"/>
+      <c r="D143" s="11"/>
+      <c r="E143" s="11"/>
+      <c r="F143" s="11"/>
+      <c r="G143" s="12"/>
+      <c r="H143" s="11"/>
+    </row>
+    <row r="144" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C144" s="11"/>
+      <c r="D144" s="11"/>
+      <c r="E144" s="11"/>
+      <c r="F144" s="11"/>
+      <c r="G144" s="12"/>
+      <c r="H144" s="11"/>
+    </row>
+    <row r="145" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C145" s="11"/>
+      <c r="D145" s="11"/>
+      <c r="E145" s="11"/>
+      <c r="F145" s="11"/>
+      <c r="G145" s="12"/>
+      <c r="H145" s="11"/>
+    </row>
+    <row r="146" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C146" s="11"/>
+      <c r="D146" s="11"/>
+      <c r="E146" s="11"/>
+      <c r="F146" s="11"/>
+      <c r="G146" s="12"/>
+      <c r="H146" s="11"/>
+    </row>
+    <row r="147" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C147" s="11"/>
+      <c r="D147" s="11"/>
+      <c r="E147" s="11"/>
+      <c r="F147" s="11"/>
+      <c r="G147" s="12"/>
+      <c r="H147" s="11"/>
+    </row>
+    <row r="148" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C148" s="11"/>
+      <c r="D148" s="11"/>
+      <c r="E148" s="11"/>
+      <c r="F148" s="11"/>
+      <c r="G148" s="12"/>
+      <c r="H148" s="11"/>
+    </row>
+    <row r="149" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C149" s="11"/>
+      <c r="D149" s="11"/>
+      <c r="E149" s="11"/>
+      <c r="F149" s="11"/>
+      <c r="G149" s="12"/>
+      <c r="H149" s="11"/>
+    </row>
+    <row r="150" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C150" s="11"/>
+      <c r="D150" s="11"/>
+      <c r="E150" s="11"/>
+      <c r="F150" s="11"/>
+      <c r="G150" s="12"/>
+      <c r="H150" s="11"/>
+    </row>
+    <row r="151" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C151" s="11"/>
+      <c r="D151" s="11"/>
+      <c r="E151" s="11"/>
+      <c r="F151" s="11"/>
+      <c r="G151" s="12"/>
+      <c r="H151" s="11"/>
+    </row>
+    <row r="152" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C152" s="11"/>
+      <c r="D152" s="11"/>
+      <c r="E152" s="11"/>
+      <c r="F152" s="11"/>
+      <c r="G152" s="12"/>
+      <c r="H152" s="11"/>
+    </row>
+    <row r="153" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C153" s="11"/>
+      <c r="D153" s="11"/>
+      <c r="E153" s="11"/>
+      <c r="F153" s="11"/>
+      <c r="G153" s="12"/>
+      <c r="H153" s="11"/>
+    </row>
+    <row r="154" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C154" s="11"/>
+      <c r="D154" s="11"/>
+      <c r="E154" s="11"/>
+      <c r="F154" s="11"/>
+      <c r="G154" s="12"/>
+      <c r="H154" s="11"/>
+    </row>
+    <row r="155" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C155" s="11"/>
+      <c r="D155" s="11"/>
+      <c r="E155" s="11"/>
+      <c r="F155" s="11"/>
+      <c r="G155" s="12"/>
+      <c r="H155" s="11"/>
+    </row>
+    <row r="156" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C156" s="11"/>
+      <c r="D156" s="11"/>
+      <c r="E156" s="11"/>
+      <c r="F156" s="11"/>
+      <c r="G156" s="12"/>
+      <c r="H156" s="11"/>
+    </row>
+    <row r="157" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C157" s="11"/>
+      <c r="D157" s="11"/>
+      <c r="E157" s="11"/>
+      <c r="F157" s="11"/>
+      <c r="G157" s="12"/>
+      <c r="H157" s="11"/>
+    </row>
+    <row r="158" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C158" s="11"/>
+      <c r="D158" s="11"/>
+      <c r="E158" s="11"/>
+      <c r="F158" s="11"/>
+      <c r="G158" s="12"/>
+      <c r="H158" s="11"/>
+    </row>
+    <row r="159" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C159" s="11"/>
+      <c r="D159" s="11"/>
+      <c r="E159" s="11"/>
+      <c r="F159" s="11"/>
+      <c r="G159" s="12"/>
+      <c r="H159" s="11"/>
+    </row>
+    <row r="160" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C160" s="11"/>
+      <c r="D160" s="11"/>
+      <c r="E160" s="11"/>
+      <c r="F160" s="11"/>
+      <c r="G160" s="12"/>
+      <c r="H160" s="11"/>
+    </row>
+    <row r="161" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C161" s="11"/>
+      <c r="D161" s="11"/>
+      <c r="E161" s="11"/>
+      <c r="F161" s="11"/>
+      <c r="G161" s="12"/>
+      <c r="H161" s="11"/>
+    </row>
+    <row r="162" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C162" s="11"/>
+      <c r="D162" s="11"/>
+      <c r="E162" s="11"/>
+      <c r="F162" s="11"/>
+      <c r="G162" s="12"/>
+      <c r="H162" s="11"/>
+    </row>
+    <row r="163" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C163" s="11"/>
+      <c r="D163" s="11"/>
+      <c r="E163" s="11"/>
+      <c r="F163" s="11"/>
+      <c r="G163" s="12"/>
+      <c r="H163" s="11"/>
+    </row>
+    <row r="164" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C164" s="11"/>
+      <c r="D164" s="11"/>
+      <c r="E164" s="11"/>
+      <c r="F164" s="11"/>
+      <c r="G164" s="12"/>
+      <c r="H164" s="11"/>
+    </row>
+    <row r="165" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C165" s="11"/>
+      <c r="D165" s="11"/>
+      <c r="E165" s="11"/>
+      <c r="F165" s="11"/>
+      <c r="G165" s="12"/>
+      <c r="H165" s="11"/>
+    </row>
+    <row r="166" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C166" s="11"/>
+      <c r="D166" s="11"/>
+      <c r="E166" s="11"/>
+      <c r="F166" s="11"/>
+      <c r="G166" s="12"/>
+      <c r="H166" s="11"/>
+    </row>
+    <row r="167" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C167" s="11"/>
+      <c r="D167" s="11"/>
+      <c r="E167" s="11"/>
+      <c r="F167" s="11"/>
+      <c r="G167" s="12"/>
+      <c r="H167" s="11"/>
+    </row>
+    <row r="168" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C168" s="11"/>
+      <c r="D168" s="11"/>
+      <c r="E168" s="11"/>
+      <c r="F168" s="11"/>
+      <c r="G168" s="12"/>
+      <c r="H168" s="11"/>
+    </row>
+    <row r="169" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C169" s="11"/>
+      <c r="D169" s="11"/>
+      <c r="E169" s="11"/>
+      <c r="F169" s="11"/>
+      <c r="G169" s="12"/>
+      <c r="H169" s="11"/>
+    </row>
+    <row r="170" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C170" s="11"/>
+      <c r="D170" s="11"/>
+      <c r="E170" s="11"/>
+      <c r="F170" s="11"/>
+      <c r="G170" s="12"/>
+      <c r="H170" s="11"/>
+    </row>
+    <row r="171" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C171" s="11"/>
+      <c r="D171" s="11"/>
+      <c r="E171" s="11"/>
+      <c r="F171" s="11"/>
+      <c r="G171" s="12"/>
+      <c r="H171" s="11"/>
+    </row>
+    <row r="172" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C172" s="11"/>
+      <c r="D172" s="11"/>
+      <c r="E172" s="11"/>
+      <c r="F172" s="11"/>
+      <c r="G172" s="12"/>
+      <c r="H172" s="11"/>
+    </row>
+    <row r="173" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C173" s="11"/>
+      <c r="D173" s="11"/>
+      <c r="E173" s="11"/>
+      <c r="F173" s="11"/>
+      <c r="G173" s="12"/>
+      <c r="H173" s="11"/>
+    </row>
+    <row r="174" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C174" s="11"/>
+      <c r="D174" s="11"/>
+      <c r="E174" s="11"/>
+      <c r="F174" s="11"/>
+      <c r="G174" s="12"/>
+      <c r="H174" s="11"/>
+    </row>
+    <row r="175" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C175" s="11"/>
+      <c r="D175" s="11"/>
+      <c r="E175" s="11"/>
+      <c r="F175" s="11"/>
+      <c r="G175" s="12"/>
+      <c r="H175" s="11"/>
+    </row>
+    <row r="176" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C176" s="11"/>
+      <c r="D176" s="11"/>
+      <c r="E176" s="11"/>
+      <c r="F176" s="11"/>
+      <c r="G176" s="12"/>
+      <c r="H176" s="11"/>
+    </row>
+    <row r="177" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C177" s="11"/>
+      <c r="D177" s="11"/>
+      <c r="E177" s="11"/>
+      <c r="F177" s="11"/>
+      <c r="G177" s="12"/>
+      <c r="H177" s="11"/>
+    </row>
+    <row r="178" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C178" s="11"/>
+      <c r="D178" s="11"/>
+      <c r="E178" s="11"/>
+      <c r="F178" s="11"/>
+      <c r="G178" s="12"/>
+      <c r="H178" s="11"/>
+    </row>
+    <row r="179" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C179" s="11"/>
+      <c r="D179" s="11"/>
+      <c r="E179" s="11"/>
+      <c r="F179" s="11"/>
+      <c r="G179" s="12"/>
+      <c r="H179" s="11"/>
+    </row>
+    <row r="180" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C180" s="11"/>
+      <c r="D180" s="11"/>
+      <c r="E180" s="11"/>
+      <c r="F180" s="11"/>
+      <c r="G180" s="12"/>
+      <c r="H180" s="11"/>
+    </row>
+    <row r="181" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C181" s="11"/>
+      <c r="D181" s="11"/>
+      <c r="E181" s="11"/>
+      <c r="F181" s="11"/>
+      <c r="G181" s="12"/>
+      <c r="H181" s="11"/>
+    </row>
+    <row r="182" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C182" s="11"/>
+      <c r="D182" s="11"/>
+      <c r="E182" s="11"/>
+      <c r="F182" s="11"/>
+      <c r="G182" s="12"/>
+      <c r="H182" s="11"/>
+    </row>
+    <row r="183" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C183" s="11"/>
+      <c r="D183" s="11"/>
+      <c r="E183" s="11"/>
+      <c r="F183" s="11"/>
+      <c r="G183" s="12"/>
+      <c r="H183" s="11"/>
+    </row>
+    <row r="184" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C184" s="11"/>
+      <c r="D184" s="11"/>
+      <c r="E184" s="11"/>
+      <c r="F184" s="11"/>
+      <c r="G184" s="12"/>
+      <c r="H184" s="11"/>
+    </row>
+    <row r="185" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C185" s="11"/>
+      <c r="D185" s="11"/>
+      <c r="E185" s="11"/>
+      <c r="F185" s="11"/>
+      <c r="G185" s="12"/>
+      <c r="H185" s="11"/>
+    </row>
+    <row r="186" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C186" s="11"/>
+      <c r="D186" s="11"/>
+      <c r="E186" s="11"/>
+      <c r="F186" s="11"/>
+      <c r="G186" s="12"/>
+      <c r="H186" s="11"/>
+    </row>
+    <row r="187" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C187" s="11"/>
+      <c r="D187" s="11"/>
+      <c r="E187" s="11"/>
+      <c r="F187" s="11"/>
+      <c r="G187" s="12"/>
+      <c r="H187" s="11"/>
+    </row>
+    <row r="188" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C188" s="11"/>
+      <c r="D188" s="11"/>
+      <c r="E188" s="11"/>
+      <c r="F188" s="11"/>
+      <c r="G188" s="12"/>
+      <c r="H188" s="11"/>
+    </row>
+    <row r="189" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C189" s="11"/>
+      <c r="D189" s="11"/>
+      <c r="E189" s="11"/>
+      <c r="F189" s="11"/>
+      <c r="G189" s="12"/>
+      <c r="H189" s="11"/>
+    </row>
+    <row r="190" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C190" s="11"/>
+      <c r="D190" s="11"/>
+      <c r="E190" s="11"/>
+      <c r="F190" s="11"/>
+      <c r="G190" s="12"/>
+      <c r="H190" s="11"/>
+    </row>
+    <row r="191" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C191" s="11"/>
+      <c r="D191" s="11"/>
+      <c r="E191" s="11"/>
+      <c r="F191" s="11"/>
+      <c r="G191" s="12"/>
+      <c r="H191" s="11"/>
+    </row>
+    <row r="192" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C192" s="11"/>
+      <c r="D192" s="11"/>
+      <c r="E192" s="11"/>
+      <c r="F192" s="11"/>
+      <c r="G192" s="12"/>
+      <c r="H192" s="11"/>
+    </row>
+    <row r="193" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C193" s="11"/>
+      <c r="D193" s="11"/>
+      <c r="E193" s="11"/>
+      <c r="F193" s="11"/>
+      <c r="G193" s="12"/>
+      <c r="H193" s="11"/>
+    </row>
+    <row r="194" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C194" s="11"/>
+      <c r="D194" s="11"/>
+      <c r="E194" s="11"/>
+      <c r="F194" s="11"/>
+      <c r="G194" s="12"/>
+      <c r="H194" s="11"/>
+    </row>
+    <row r="195" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C195" s="11"/>
+      <c r="D195" s="11"/>
+      <c r="E195" s="11"/>
+      <c r="F195" s="11"/>
+      <c r="G195" s="12"/>
+      <c r="H195" s="11"/>
+    </row>
+    <row r="196" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C196" s="11"/>
+      <c r="D196" s="11"/>
+      <c r="E196" s="11"/>
+      <c r="F196" s="11"/>
+      <c r="G196" s="12"/>
+      <c r="H196" s="11"/>
+    </row>
+    <row r="197" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C197" s="11"/>
+      <c r="D197" s="11"/>
+      <c r="E197" s="11"/>
+      <c r="F197" s="11"/>
+      <c r="G197" s="12"/>
+      <c r="H197" s="11"/>
+    </row>
+    <row r="198" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C198" s="11"/>
+      <c r="D198" s="11"/>
+      <c r="E198" s="11"/>
+      <c r="F198" s="11"/>
+      <c r="G198" s="12"/>
+      <c r="H198" s="11"/>
+    </row>
+    <row r="199" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C199" s="11"/>
+      <c r="D199" s="11"/>
+      <c r="E199" s="11"/>
+      <c r="F199" s="11"/>
+      <c r="G199" s="12"/>
+      <c r="H199" s="11"/>
+    </row>
+    <row r="200" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C200" s="11"/>
+      <c r="D200" s="11"/>
+      <c r="E200" s="11"/>
+      <c r="F200" s="11"/>
+      <c r="G200" s="12"/>
+      <c r="H200" s="11"/>
+    </row>
+    <row r="201" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C201" s="11"/>
+      <c r="D201" s="11"/>
+      <c r="E201" s="11"/>
+      <c r="F201" s="11"/>
+      <c r="G201" s="12"/>
+      <c r="H201" s="11"/>
+    </row>
+    <row r="202" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C202" s="11"/>
+      <c r="D202" s="11"/>
+      <c r="E202" s="11"/>
+      <c r="F202" s="11"/>
+      <c r="G202" s="12"/>
+      <c r="H202" s="11"/>
+    </row>
+    <row r="203" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C203" s="11"/>
+      <c r="D203" s="11"/>
+      <c r="E203" s="11"/>
+      <c r="F203" s="11"/>
+      <c r="G203" s="12"/>
+      <c r="H203" s="11"/>
+    </row>
+    <row r="204" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C204" s="11"/>
+      <c r="D204" s="11"/>
+      <c r="E204" s="11"/>
+      <c r="F204" s="11"/>
+      <c r="G204" s="12"/>
+      <c r="H204" s="11"/>
+    </row>
+    <row r="205" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C205" s="11"/>
+      <c r="D205" s="11"/>
+      <c r="E205" s="11"/>
+      <c r="F205" s="11"/>
+      <c r="G205" s="12"/>
+      <c r="H205" s="11"/>
+    </row>
+    <row r="206" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C206" s="11"/>
+      <c r="D206" s="11"/>
+      <c r="E206" s="11"/>
+      <c r="F206" s="11"/>
+      <c r="G206" s="12"/>
+      <c r="H206" s="11"/>
+    </row>
+    <row r="207" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C207" s="11"/>
+      <c r="D207" s="11"/>
+      <c r="E207" s="11"/>
+      <c r="F207" s="11"/>
+      <c r="G207" s="12"/>
+      <c r="H207" s="11"/>
+    </row>
+    <row r="208" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C208" s="11"/>
+      <c r="D208" s="11"/>
+      <c r="E208" s="11"/>
+      <c r="F208" s="11"/>
+      <c r="G208" s="12"/>
+      <c r="H208" s="11"/>
+    </row>
+    <row r="209" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C209" s="11"/>
+      <c r="D209" s="11"/>
+      <c r="E209" s="11"/>
+      <c r="F209" s="11"/>
+      <c r="G209" s="12"/>
+      <c r="H209" s="11"/>
+    </row>
+    <row r="210" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C210" s="11"/>
+      <c r="D210" s="11"/>
+      <c r="E210" s="11"/>
+      <c r="F210" s="11"/>
+      <c r="G210" s="12"/>
+      <c r="H210" s="11"/>
+    </row>
+    <row r="211" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C211" s="11"/>
+      <c r="D211" s="11"/>
+      <c r="E211" s="11"/>
+      <c r="F211" s="11"/>
+      <c r="G211" s="12"/>
+      <c r="H211" s="11"/>
+    </row>
+    <row r="212" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C212" s="11"/>
+      <c r="D212" s="11"/>
+      <c r="E212" s="11"/>
+      <c r="F212" s="11"/>
+      <c r="G212" s="12"/>
+      <c r="H212" s="11"/>
+    </row>
+    <row r="213" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C213" s="11"/>
+      <c r="D213" s="11"/>
+      <c r="E213" s="11"/>
+      <c r="F213" s="11"/>
+      <c r="G213" s="12"/>
+      <c r="H213" s="11"/>
+    </row>
+    <row r="214" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C214" s="11"/>
+      <c r="D214" s="11"/>
+      <c r="E214" s="11"/>
+      <c r="F214" s="11"/>
+      <c r="G214" s="12"/>
+      <c r="H214" s="11"/>
+    </row>
+    <row r="215" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C215" s="11"/>
+      <c r="D215" s="11"/>
+      <c r="E215" s="11"/>
+      <c r="F215" s="11"/>
+      <c r="G215" s="12"/>
+      <c r="H215" s="11"/>
+    </row>
+    <row r="216" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C216" s="11"/>
+      <c r="D216" s="11"/>
+      <c r="E216" s="11"/>
+      <c r="F216" s="11"/>
+      <c r="G216" s="12"/>
+      <c r="H216" s="11"/>
+    </row>
+    <row r="217" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C217" s="11"/>
+      <c r="D217" s="11"/>
+      <c r="E217" s="11"/>
+      <c r="F217" s="11"/>
+      <c r="G217" s="12"/>
+      <c r="H217" s="11"/>
+    </row>
+    <row r="218" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C218" s="11"/>
+      <c r="D218" s="11"/>
+      <c r="E218" s="11"/>
+      <c r="F218" s="11"/>
+      <c r="G218" s="12"/>
+      <c r="H218" s="11"/>
+    </row>
+    <row r="219" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C219" s="11"/>
+      <c r="D219" s="11"/>
+      <c r="E219" s="11"/>
+      <c r="F219" s="11"/>
+      <c r="G219" s="12"/>
+      <c r="H219" s="11"/>
+    </row>
+    <row r="220" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C220" s="11"/>
+      <c r="D220" s="11"/>
+      <c r="E220" s="11"/>
+      <c r="F220" s="11"/>
+      <c r="G220" s="12"/>
+      <c r="H220" s="11"/>
+    </row>
+    <row r="221" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C221" s="11"/>
+      <c r="D221" s="11"/>
+      <c r="E221" s="11"/>
+      <c r="F221" s="11"/>
+      <c r="G221" s="12"/>
+      <c r="H221" s="11"/>
+    </row>
+    <row r="222" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C222" s="11"/>
+      <c r="D222" s="11"/>
+      <c r="E222" s="11"/>
+      <c r="F222" s="11"/>
+      <c r="G222" s="12"/>
+      <c r="H222" s="11"/>
+    </row>
+    <row r="223" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C223" s="11"/>
+      <c r="D223" s="11"/>
+      <c r="E223" s="11"/>
+      <c r="F223" s="11"/>
+      <c r="G223" s="12"/>
+      <c r="H223" s="11"/>
+    </row>
+    <row r="224" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C224" s="11"/>
+      <c r="D224" s="11"/>
+      <c r="E224" s="11"/>
+      <c r="F224" s="11"/>
+      <c r="G224" s="12"/>
+      <c r="H224" s="11"/>
+    </row>
+    <row r="225" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C225" s="11"/>
+      <c r="D225" s="11"/>
+      <c r="E225" s="11"/>
+      <c r="F225" s="11"/>
+      <c r="G225" s="12"/>
+      <c r="H225" s="11"/>
+    </row>
+    <row r="226" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C226" s="11"/>
+      <c r="D226" s="11"/>
+      <c r="E226" s="11"/>
+      <c r="F226" s="11"/>
+      <c r="G226" s="12"/>
+      <c r="H226" s="11"/>
+    </row>
+    <row r="227" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C227" s="11"/>
+      <c r="D227" s="11"/>
+      <c r="E227" s="11"/>
+      <c r="F227" s="11"/>
+      <c r="G227" s="12"/>
+      <c r="H227" s="11"/>
+    </row>
+    <row r="228" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C228" s="11"/>
+      <c r="D228" s="11"/>
+      <c r="E228" s="11"/>
+      <c r="F228" s="11"/>
+      <c r="G228" s="12"/>
+      <c r="H228" s="11"/>
+    </row>
+    <row r="229" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C229" s="11"/>
+      <c r="D229" s="11"/>
+      <c r="E229" s="11"/>
+      <c r="F229" s="11"/>
+      <c r="G229" s="12"/>
+      <c r="H229" s="11"/>
+    </row>
+    <row r="230" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C230" s="11"/>
+      <c r="D230" s="11"/>
+      <c r="E230" s="11"/>
+      <c r="F230" s="11"/>
+      <c r="G230" s="12"/>
+      <c r="H230" s="11"/>
+    </row>
+    <row r="231" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C231" s="11"/>
+      <c r="D231" s="11"/>
+      <c r="E231" s="11"/>
+      <c r="F231" s="11"/>
+      <c r="G231" s="12"/>
+      <c r="H231" s="11"/>
+    </row>
+    <row r="232" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C232" s="11"/>
+      <c r="D232" s="11"/>
+      <c r="E232" s="11"/>
+      <c r="F232" s="11"/>
+      <c r="G232" s="12"/>
+      <c r="H232" s="11"/>
+    </row>
+    <row r="233" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C233" s="11"/>
+      <c r="D233" s="11"/>
+      <c r="E233" s="11"/>
+      <c r="F233" s="11"/>
+      <c r="G233" s="12"/>
+      <c r="H233" s="11"/>
+    </row>
+    <row r="234" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C234" s="11"/>
+      <c r="D234" s="11"/>
+      <c r="E234" s="11"/>
+      <c r="F234" s="11"/>
+      <c r="G234" s="12"/>
+      <c r="H234" s="11"/>
+    </row>
+    <row r="235" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C235" s="11"/>
+      <c r="D235" s="11"/>
+      <c r="E235" s="11"/>
+      <c r="F235" s="11"/>
+      <c r="G235" s="12"/>
+      <c r="H235" s="11"/>
+    </row>
+    <row r="236" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C236" s="11"/>
+      <c r="D236" s="11"/>
+      <c r="E236" s="11"/>
+      <c r="F236" s="11"/>
+      <c r="G236" s="12"/>
+      <c r="H236" s="11"/>
+    </row>
+    <row r="237" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C237" s="11"/>
+      <c r="D237" s="11"/>
+      <c r="E237" s="11"/>
+      <c r="F237" s="11"/>
+      <c r="G237" s="12"/>
+      <c r="H237" s="11"/>
+    </row>
+    <row r="238" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C238" s="11"/>
+      <c r="D238" s="11"/>
+      <c r="E238" s="11"/>
+      <c r="F238" s="11"/>
+      <c r="G238" s="12"/>
+      <c r="H238" s="11"/>
+    </row>
+    <row r="239" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C239" s="11"/>
+      <c r="D239" s="11"/>
+      <c r="E239" s="11"/>
+      <c r="F239" s="11"/>
+      <c r="G239" s="12"/>
+      <c r="H239" s="11"/>
+    </row>
+    <row r="240" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C240" s="11"/>
+      <c r="D240" s="11"/>
+      <c r="E240" s="11"/>
+      <c r="F240" s="11"/>
+      <c r="G240" s="12"/>
+      <c r="H240" s="11"/>
+    </row>
+    <row r="241" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C241" s="11"/>
+      <c r="D241" s="11"/>
+      <c r="E241" s="11"/>
+      <c r="F241" s="11"/>
+      <c r="G241" s="12"/>
+      <c r="H241" s="11"/>
+    </row>
+    <row r="242" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C242" s="11"/>
+      <c r="D242" s="11"/>
+      <c r="E242" s="11"/>
+      <c r="F242" s="11"/>
+      <c r="G242" s="12"/>
+      <c r="H242" s="11"/>
+    </row>
+    <row r="243" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C243" s="11"/>
+      <c r="D243" s="11"/>
+      <c r="E243" s="11"/>
+      <c r="F243" s="11"/>
+      <c r="G243" s="12"/>
+      <c r="H243" s="11"/>
+    </row>
+    <row r="244" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C244" s="11"/>
+      <c r="D244" s="11"/>
+      <c r="E244" s="11"/>
+      <c r="F244" s="11"/>
+      <c r="G244" s="12"/>
+      <c r="H244" s="11"/>
+    </row>
+    <row r="245" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C245" s="11"/>
+      <c r="D245" s="11"/>
+      <c r="E245" s="11"/>
+      <c r="F245" s="11"/>
+      <c r="G245" s="12"/>
+      <c r="H245" s="11"/>
+    </row>
+    <row r="246" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C246" s="11"/>
+      <c r="D246" s="11"/>
+      <c r="E246" s="11"/>
+      <c r="F246" s="11"/>
+      <c r="G246" s="12"/>
+      <c r="H246" s="11"/>
+    </row>
+    <row r="247" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C247" s="11"/>
+      <c r="D247" s="11"/>
+      <c r="E247" s="11"/>
+      <c r="F247" s="11"/>
+      <c r="G247" s="12"/>
+      <c r="H247" s="11"/>
+    </row>
+    <row r="248" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C248" s="11"/>
+      <c r="D248" s="11"/>
+      <c r="E248" s="11"/>
+      <c r="F248" s="11"/>
+      <c r="G248" s="12"/>
+      <c r="H248" s="11"/>
+    </row>
+    <row r="249" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C249" s="11"/>
+      <c r="D249" s="11"/>
+      <c r="E249" s="11"/>
+      <c r="F249" s="11"/>
+      <c r="G249" s="12"/>
+      <c r="H249" s="11"/>
+    </row>
+    <row r="250" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C250" s="11"/>
+      <c r="D250" s="11"/>
+      <c r="E250" s="11"/>
+      <c r="F250" s="11"/>
+      <c r="G250" s="12"/>
+      <c r="H250" s="11"/>
+    </row>
+    <row r="251" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C251" s="11"/>
+      <c r="D251" s="11"/>
+      <c r="E251" s="11"/>
+      <c r="F251" s="11"/>
+      <c r="G251" s="12"/>
+      <c r="H251" s="11"/>
+    </row>
+    <row r="252" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C252" s="11"/>
+      <c r="D252" s="11"/>
+      <c r="E252" s="11"/>
+      <c r="F252" s="11"/>
+      <c r="G252" s="12"/>
+      <c r="H252" s="11"/>
+    </row>
+    <row r="253" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C253" s="11"/>
+      <c r="D253" s="11"/>
+      <c r="E253" s="11"/>
+      <c r="F253" s="11"/>
+      <c r="G253" s="12"/>
+      <c r="H253" s="11"/>
+    </row>
+    <row r="254" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C254" s="11"/>
+      <c r="D254" s="11"/>
+      <c r="E254" s="11"/>
+      <c r="F254" s="11"/>
+      <c r="G254" s="12"/>
+      <c r="H254" s="11"/>
+    </row>
+    <row r="255" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C255" s="11"/>
+      <c r="D255" s="11"/>
+      <c r="E255" s="11"/>
+      <c r="F255" s="11"/>
+      <c r="G255" s="12"/>
+      <c r="H255" s="11"/>
+    </row>
+    <row r="256" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C256" s="11"/>
+      <c r="D256" s="11"/>
+      <c r="E256" s="11"/>
+      <c r="F256" s="11"/>
+      <c r="G256" s="12"/>
+      <c r="H256" s="11"/>
+    </row>
+    <row r="257" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C257" s="11"/>
+      <c r="D257" s="11"/>
+      <c r="E257" s="11"/>
+      <c r="F257" s="11"/>
+      <c r="G257" s="12"/>
+      <c r="H257" s="11"/>
+    </row>
+    <row r="258" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C258" s="11"/>
+      <c r="D258" s="11"/>
+      <c r="E258" s="11"/>
+      <c r="F258" s="11"/>
+      <c r="G258" s="12"/>
+      <c r="H258" s="11"/>
+    </row>
+    <row r="259" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C259" s="11"/>
+      <c r="D259" s="11"/>
+      <c r="E259" s="11"/>
+      <c r="F259" s="11"/>
+      <c r="G259" s="12"/>
+      <c r="H259" s="11"/>
+    </row>
+    <row r="260" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C260" s="11"/>
+      <c r="D260" s="11"/>
+      <c r="E260" s="11"/>
+      <c r="F260" s="11"/>
+      <c r="G260" s="12"/>
+      <c r="H260" s="11"/>
+    </row>
+    <row r="261" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C261" s="11"/>
+      <c r="D261" s="11"/>
+      <c r="E261" s="11"/>
+      <c r="F261" s="11"/>
+      <c r="G261" s="12"/>
+      <c r="H261" s="11"/>
+    </row>
+    <row r="262" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C262" s="11"/>
+      <c r="D262" s="11"/>
+      <c r="E262" s="11"/>
+      <c r="F262" s="11"/>
+      <c r="G262" s="12"/>
+      <c r="H262" s="11"/>
+    </row>
+    <row r="263" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C263" s="11"/>
+      <c r="D263" s="11"/>
+      <c r="E263" s="11"/>
+      <c r="F263" s="11"/>
+      <c r="G263" s="12"/>
+      <c r="H263" s="11"/>
+    </row>
+    <row r="264" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C264" s="11"/>
+      <c r="D264" s="11"/>
+      <c r="E264" s="11"/>
+      <c r="F264" s="11"/>
+      <c r="G264" s="12"/>
+      <c r="H264" s="11"/>
+    </row>
+    <row r="265" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C265" s="11"/>
+      <c r="D265" s="11"/>
+      <c r="E265" s="11"/>
+      <c r="F265" s="11"/>
+      <c r="G265" s="12"/>
+      <c r="H265" s="11"/>
+    </row>
+    <row r="266" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C266" s="11"/>
+      <c r="D266" s="11"/>
+      <c r="E266" s="11"/>
+      <c r="F266" s="11"/>
+      <c r="G266" s="12"/>
+      <c r="H266" s="11"/>
+    </row>
+    <row r="267" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C267" s="11"/>
+      <c r="D267" s="11"/>
+      <c r="E267" s="11"/>
+      <c r="F267" s="11"/>
+      <c r="G267" s="12"/>
+      <c r="H267" s="11"/>
+    </row>
+    <row r="268" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C268" s="11"/>
+      <c r="D268" s="11"/>
+      <c r="E268" s="11"/>
+      <c r="F268" s="11"/>
+      <c r="G268" s="12"/>
+      <c r="H268" s="11"/>
+    </row>
+    <row r="269" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C269" s="11"/>
+      <c r="D269" s="11"/>
+      <c r="E269" s="11"/>
+      <c r="F269" s="11"/>
+      <c r="G269" s="12"/>
+      <c r="H269" s="11"/>
+    </row>
+    <row r="270" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C270" s="11"/>
+      <c r="D270" s="11"/>
+      <c r="E270" s="11"/>
+      <c r="F270" s="11"/>
+      <c r="G270" s="12"/>
+      <c r="H270" s="11"/>
+    </row>
+    <row r="271" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C271" s="11"/>
+      <c r="D271" s="11"/>
+      <c r="E271" s="11"/>
+      <c r="F271" s="11"/>
+      <c r="G271" s="12"/>
+      <c r="H271" s="11"/>
+    </row>
+    <row r="272" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C272" s="11"/>
+      <c r="D272" s="11"/>
+      <c r="E272" s="11"/>
+      <c r="F272" s="11"/>
+      <c r="G272" s="12"/>
+      <c r="H272" s="11"/>
+    </row>
+    <row r="273" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C273" s="11"/>
+      <c r="D273" s="11"/>
+      <c r="E273" s="11"/>
+      <c r="F273" s="11"/>
+      <c r="G273" s="12"/>
+      <c r="H273" s="11"/>
+    </row>
+    <row r="274" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C274" s="11"/>
+      <c r="D274" s="11"/>
+      <c r="E274" s="11"/>
+      <c r="F274" s="11"/>
+      <c r="G274" s="12"/>
+      <c r="H274" s="11"/>
+    </row>
+    <row r="275" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C275" s="11"/>
+      <c r="D275" s="11"/>
+      <c r="E275" s="11"/>
+      <c r="F275" s="11"/>
+      <c r="G275" s="12"/>
+      <c r="H275" s="11"/>
+    </row>
+    <row r="276" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C276" s="11"/>
+      <c r="D276" s="11"/>
+      <c r="E276" s="11"/>
+      <c r="F276" s="11"/>
+      <c r="G276" s="12"/>
+      <c r="H276" s="11"/>
+    </row>
+    <row r="277" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C277" s="11"/>
+      <c r="D277" s="11"/>
+      <c r="E277" s="11"/>
+      <c r="F277" s="11"/>
+      <c r="G277" s="12"/>
+      <c r="H277" s="11"/>
+    </row>
+    <row r="278" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C278" s="11"/>
+      <c r="D278" s="11"/>
+      <c r="E278" s="11"/>
+      <c r="F278" s="11"/>
+      <c r="G278" s="12"/>
+      <c r="H278" s="11"/>
+    </row>
+    <row r="279" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C279" s="11"/>
+      <c r="D279" s="11"/>
+      <c r="E279" s="11"/>
+      <c r="F279" s="11"/>
+      <c r="G279" s="12"/>
+      <c r="H279" s="11"/>
+    </row>
+    <row r="280" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C280" s="11"/>
+      <c r="D280" s="11"/>
+      <c r="E280" s="11"/>
+      <c r="F280" s="11"/>
+      <c r="G280" s="12"/>
+      <c r="H280" s="11"/>
+    </row>
+    <row r="281" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C281" s="11"/>
+      <c r="D281" s="11"/>
+      <c r="E281" s="11"/>
+      <c r="F281" s="11"/>
+      <c r="G281" s="12"/>
+      <c r="H281" s="11"/>
+    </row>
+    <row r="282" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C282" s="11"/>
+      <c r="D282" s="11"/>
+      <c r="E282" s="11"/>
+      <c r="F282" s="11"/>
+      <c r="G282" s="12"/>
+      <c r="H282" s="11"/>
+    </row>
+    <row r="283" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C283" s="11"/>
+      <c r="D283" s="11"/>
+      <c r="E283" s="11"/>
+      <c r="F283" s="11"/>
+      <c r="G283" s="12"/>
+      <c r="H283" s="11"/>
+    </row>
+    <row r="284" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C284" s="11"/>
+      <c r="D284" s="11"/>
+      <c r="E284" s="11"/>
+      <c r="F284" s="11"/>
+      <c r="G284" s="12"/>
+      <c r="H284" s="11"/>
+    </row>
+    <row r="285" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C285" s="11"/>
+      <c r="D285" s="11"/>
+      <c r="E285" s="11"/>
+      <c r="F285" s="11"/>
+      <c r="G285" s="12"/>
+      <c r="H285" s="11"/>
+    </row>
+    <row r="286" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C286" s="11"/>
+      <c r="D286" s="11"/>
+      <c r="E286" s="11"/>
+      <c r="F286" s="11"/>
+      <c r="G286" s="12"/>
+      <c r="H286" s="11"/>
+    </row>
+    <row r="287" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C287" s="11"/>
+      <c r="D287" s="11"/>
+      <c r="E287" s="11"/>
+      <c r="F287" s="11"/>
+      <c r="G287" s="12"/>
+      <c r="H287" s="11"/>
+    </row>
+    <row r="288" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C288" s="11"/>
+      <c r="D288" s="11"/>
+      <c r="E288" s="11"/>
+      <c r="F288" s="11"/>
+      <c r="G288" s="12"/>
+      <c r="H288" s="11"/>
+    </row>
+    <row r="289" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C289" s="11"/>
+      <c r="D289" s="11"/>
+      <c r="E289" s="11"/>
+      <c r="F289" s="11"/>
+      <c r="G289" s="12"/>
+      <c r="H289" s="11"/>
+    </row>
+    <row r="290" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C290" s="11"/>
+      <c r="D290" s="11"/>
+      <c r="E290" s="11"/>
+      <c r="F290" s="11"/>
+      <c r="G290" s="12"/>
+      <c r="H290" s="11"/>
+    </row>
+    <row r="291" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C291" s="11"/>
+      <c r="D291" s="11"/>
+      <c r="E291" s="11"/>
+      <c r="F291" s="11"/>
+      <c r="G291" s="12"/>
+      <c r="H291" s="11"/>
+    </row>
+    <row r="292" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C292" s="11"/>
+      <c r="D292" s="11"/>
+      <c r="E292" s="11"/>
+      <c r="F292" s="11"/>
+      <c r="G292" s="12"/>
+      <c r="H292" s="11"/>
+    </row>
+    <row r="293" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C293" s="11"/>
+      <c r="D293" s="11"/>
+      <c r="E293" s="11"/>
+      <c r="F293" s="11"/>
+      <c r="G293" s="12"/>
+      <c r="H293" s="11"/>
+    </row>
+    <row r="294" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C294" s="11"/>
+      <c r="D294" s="11"/>
+      <c r="E294" s="11"/>
+      <c r="F294" s="11"/>
+      <c r="G294" s="12"/>
+      <c r="H294" s="11"/>
+    </row>
+    <row r="295" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C295" s="11"/>
+      <c r="D295" s="11"/>
+      <c r="E295" s="11"/>
+      <c r="F295" s="11"/>
+      <c r="G295" s="12"/>
+      <c r="H295" s="11"/>
+    </row>
+    <row r="296" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C296" s="11"/>
+      <c r="D296" s="11"/>
+      <c r="E296" s="11"/>
+      <c r="F296" s="11"/>
+      <c r="G296" s="12"/>
+      <c r="H296" s="11"/>
+    </row>
+    <row r="297" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C297" s="11"/>
+      <c r="D297" s="11"/>
+      <c r="E297" s="11"/>
+      <c r="F297" s="11"/>
+      <c r="G297" s="12"/>
+      <c r="H297" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A38:A48"/>
+    <mergeCell ref="A49:I49"/>
+    <mergeCell ref="A50:A60"/>
+    <mergeCell ref="A61:I61"/>
+    <mergeCell ref="A3:A14"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A16:A25"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A27:A36"/>
+    <mergeCell ref="A37:I37"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
